--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-30-4A-500 (Байрон)/от 15.10.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-B-30-4A-500 (Байрон)/от 15.10.2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="Воронка" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Акт приемки'!$A$1:$J$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Акт приемки'!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Горл. кольцо'!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Плунжер!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. поддон'!$A$1:$S$16</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="120">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -362,39 +362,6 @@
     <t>ООО "Стеклозавод "Ведатранзит"</t>
   </si>
   <si>
-    <t>Поддон (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
-    <t>Черновая форма (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
-    <t>Пресс головка (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
-    <t>Горловое кольцо (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
-    <t>Направляющее кольцо (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
-    <t>Плунжер (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
-    <t>Втулка плунжера (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
-    <t>Воронка (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
-    <t>Дутьевая головка (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
-    <t>Плита охлаждения (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
-    <t>Трубка дутьевой головки (к серийному формокомплекту Бутылка ХХI-В-28-1-200-5)</t>
-  </si>
-  <si>
     <t>Трубка дутьевой головки</t>
   </si>
   <si>
@@ -419,13 +386,19 @@
     <t>Полная высота 52,5 мм</t>
   </si>
   <si>
-    <t>30 / 44,7</t>
-  </si>
-  <si>
     <t>58,93 / 35,83</t>
   </si>
   <si>
     <t>48 / 32</t>
+  </si>
+  <si>
+    <t>59 / 36</t>
+  </si>
+  <si>
+    <t>Поддон</t>
+  </si>
+  <si>
+    <t>Пресс головка</t>
   </si>
 </sst>
 </file>
@@ -774,7 +747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="94">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -1858,19 +1831,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1911,7 +1871,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="536">
+  <cellXfs count="530">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -2869,9 +2829,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -3062,24 +3019,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3122,20 +3080,29 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3143,86 +3110,56 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3274,73 +3211,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3364,6 +3304,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3390,19 +3399,19 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3421,87 +3430,20 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="93" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="93" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5760,8 +5702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5773,298 +5715,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="395" t="s">
+      <c r="A1" s="394" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="399"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
-      <c r="G1" s="374" t="s">
+      <c r="B1" s="398"/>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
+      <c r="G1" s="373" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="396" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="397"/>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="398"/>
-      <c r="G2" s="373" t="s">
+      <c r="A2" s="395" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="396"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="397"/>
+      <c r="G2" s="372" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="373" t="s">
+      <c r="G3" s="372" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="400" t="s">
+      <c r="A4" s="399" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="401"/>
-      <c r="C4" s="401"/>
-      <c r="D4" s="401"/>
-      <c r="E4" s="401"/>
+      <c r="B4" s="400"/>
+      <c r="C4" s="400"/>
+      <c r="D4" s="400"/>
+      <c r="E4" s="400"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="402" t="s">
+      <c r="A5" s="401" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="403"/>
-      <c r="C5" s="403"/>
-      <c r="D5" s="403"/>
-      <c r="E5" s="404"/>
+      <c r="B5" s="402"/>
+      <c r="C5" s="402"/>
+      <c r="D5" s="402"/>
+      <c r="E5" s="403"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="395" t="s">
+      <c r="A7" s="394" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="399"/>
-      <c r="C7" s="399"/>
-      <c r="D7" s="399"/>
-      <c r="E7" s="399"/>
+      <c r="B7" s="398"/>
+      <c r="C7" s="398"/>
+      <c r="D7" s="398"/>
+      <c r="E7" s="398"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="405"/>
-      <c r="B8" s="406"/>
-      <c r="C8" s="406"/>
-      <c r="D8" s="406"/>
-      <c r="E8" s="407"/>
+      <c r="A8" s="404"/>
+      <c r="B8" s="405"/>
+      <c r="C8" s="405"/>
+      <c r="D8" s="405"/>
+      <c r="E8" s="406"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="395" t="s">
+      <c r="A10" s="394" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="395"/>
-      <c r="C10" s="375"/>
-      <c r="D10" s="383" t="s">
+      <c r="B10" s="394"/>
+      <c r="C10" s="374"/>
+      <c r="D10" s="382" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="375"/>
+      <c r="E10" s="374"/>
       <c r="F10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="393"/>
-      <c r="B11" s="394"/>
-      <c r="D11" s="382">
+      <c r="A11" s="392"/>
+      <c r="B11" s="393"/>
+      <c r="D11" s="381">
         <v>43753</v>
       </c>
-      <c r="F11" s="391" t="s">
+      <c r="F11" s="407" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="391"/>
-      <c r="H11" s="391"/>
-      <c r="I11" s="391"/>
-      <c r="J11" s="392" t="s">
+      <c r="G11" s="407"/>
+      <c r="H11" s="407"/>
+      <c r="I11" s="407"/>
+      <c r="J11" s="408" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="392"/>
+      <c r="K11" s="408"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="391" t="s">
+      <c r="F12" s="407" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="391"/>
-      <c r="H12" s="391"/>
-      <c r="I12" s="391"/>
-      <c r="J12" s="392" t="s">
+      <c r="G12" s="407"/>
+      <c r="H12" s="407"/>
+      <c r="I12" s="407"/>
+      <c r="J12" s="408" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="392"/>
+      <c r="K12" s="408"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="376" t="s">
+      <c r="A13" s="375" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="377" t="s">
+      <c r="B13" s="376" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="389" t="s">
+      <c r="C13" s="386" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="391" t="s">
+      <c r="F13" s="407" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="391"/>
-      <c r="H13" s="391"/>
-      <c r="I13" s="391"/>
-      <c r="J13" s="392" t="s">
+      <c r="G13" s="407"/>
+      <c r="H13" s="407"/>
+      <c r="I13" s="407"/>
+      <c r="J13" s="408" t="s">
         <v>102</v>
       </c>
-      <c r="K13" s="392"/>
+      <c r="K13" s="408"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="378" t="s">
+      <c r="A14" s="377" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="379">
+      <c r="B14" s="378">
         <v>22</v>
       </c>
-      <c r="C14" s="385" t="s">
-        <v>120</v>
+      <c r="C14" s="384" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="378" t="s">
+      <c r="A15" s="377" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="379">
+      <c r="B15" s="378">
         <v>22</v>
       </c>
-      <c r="C15" s="385" t="s">
-        <v>120</v>
+      <c r="C15" s="384" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="378" t="s">
+      <c r="A16" s="377" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="379">
+      <c r="B16" s="378">
         <v>26</v>
       </c>
-      <c r="C16" s="385" t="s">
-        <v>120</v>
+      <c r="C16" s="384" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="378" t="s">
+      <c r="A17" s="377" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="379">
+      <c r="B17" s="378">
         <v>26</v>
       </c>
-      <c r="C17" s="385" t="s">
-        <v>120</v>
+      <c r="C17" s="384" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="378" t="s">
+      <c r="A18" s="377" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="379">
+      <c r="B18" s="378">
         <v>50</v>
       </c>
-      <c r="C18" s="385" t="s">
-        <v>120</v>
+      <c r="C18" s="384" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="378" t="s">
+      <c r="A19" s="377" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="379">
+      <c r="B19" s="378">
         <v>50</v>
       </c>
-      <c r="C19" s="385" t="s">
-        <v>120</v>
+      <c r="C19" s="384" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="378" t="s">
+      <c r="A20" s="377" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="379">
+      <c r="B20" s="378">
         <v>40</v>
       </c>
-      <c r="C20" s="385" t="s">
-        <v>120</v>
+      <c r="C20" s="384" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="378" t="s">
+      <c r="A21" s="377" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="379">
+      <c r="B21" s="378">
         <v>20</v>
       </c>
-      <c r="C21" s="385" t="s">
-        <v>120</v>
+      <c r="C21" s="384" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="378" t="s">
+      <c r="A22" s="377" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="385" t="s">
+      <c r="B22" s="384" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="385"/>
+      <c r="C22" s="384"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="378" t="s">
+      <c r="A23" s="377" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="379">
+      <c r="B23" s="378">
         <v>18</v>
       </c>
-      <c r="C23" s="385" t="s">
-        <v>120</v>
+      <c r="C23" s="384" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="378" t="s">
+      <c r="A24" s="377" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="379">
+      <c r="B24" s="378">
         <v>8</v>
       </c>
-      <c r="C24" s="385" t="s">
-        <v>120</v>
+      <c r="C24" s="384" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="378" t="s">
+      <c r="A25" s="377" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="385" t="s">
+      <c r="B25" s="384" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="385"/>
+      <c r="C25" s="384"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="380" t="s">
+      <c r="A26" s="379" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="381">
+      <c r="B26" s="380">
         <v>18</v>
       </c>
-      <c r="C26" s="385" t="s">
-        <v>120</v>
+      <c r="C26" s="384" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="380" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="387">
+      <c r="A27" s="379" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="385">
         <v>18</v>
       </c>
-      <c r="C27" s="390"/>
+      <c r="C27" s="387"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="384"/>
+      <c r="A28" s="383"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="509" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="509"/>
-      <c r="C29" s="509"/>
+      <c r="A29" s="391" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="391"/>
+      <c r="C29" s="391"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6074,12 +6022,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6133,47 +6075,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="211"/>
-      <c r="B2" s="460"/>
-      <c r="C2" s="461"/>
-      <c r="D2" s="462"/>
-      <c r="E2" s="469" t="s">
+      <c r="B2" s="483"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="470"/>
-      <c r="G2" s="470"/>
-      <c r="H2" s="471"/>
-      <c r="I2" s="475" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="476"/>
-      <c r="K2" s="479">
+      <c r="J2" s="499"/>
+      <c r="K2" s="502">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="480"/>
+      <c r="L2" s="503"/>
       <c r="M2" s="212"/>
       <c r="N2" s="213"/>
       <c r="O2" s="214"/>
-      <c r="P2" s="499"/>
-      <c r="Q2" s="499"/>
+      <c r="P2" s="518"/>
+      <c r="Q2" s="518"/>
       <c r="R2" s="215"/>
       <c r="S2" s="216"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="211"/>
-      <c r="B3" s="463"/>
-      <c r="C3" s="464"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="472" t="s">
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="473"/>
-      <c r="G3" s="473"/>
-      <c r="H3" s="474"/>
-      <c r="I3" s="477"/>
-      <c r="J3" s="478"/>
-      <c r="K3" s="481"/>
-      <c r="L3" s="482"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="504"/>
+      <c r="L3" s="505"/>
       <c r="M3" s="217"/>
       <c r="N3" s="218"/>
       <c r="O3" s="218"/>
@@ -6184,9 +6126,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="211"/>
-      <c r="B4" s="466"/>
-      <c r="C4" s="467"/>
-      <c r="D4" s="468"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6205,22 +6147,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="211"/>
-      <c r="B5" s="445" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="483"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="476"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="484"/>
-      <c r="J5" s="485"/>
-      <c r="K5" s="486"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="220"/>
       <c r="N5" s="218"/>
       <c r="O5" s="218"/>
@@ -6231,22 +6173,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="211"/>
-      <c r="B6" s="445" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="483"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="476"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="450"/>
-      <c r="F6" s="450"/>
-      <c r="G6" s="450"/>
-      <c r="H6" s="451"/>
-      <c r="I6" s="484"/>
-      <c r="J6" s="485"/>
-      <c r="K6" s="486"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="217"/>
       <c r="N6" s="218"/>
       <c r="O6" s="218"/>
@@ -6257,27 +6199,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="211"/>
-      <c r="B7" s="452" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="487"/>
-      <c r="D7" s="405">
+      <c r="C7" s="480"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="454"/>
-      <c r="F7" s="454"/>
-      <c r="G7" s="454"/>
-      <c r="H7" s="455"/>
-      <c r="I7" s="488" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="487"/>
-      <c r="K7" s="393">
+      <c r="J7" s="480"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="220"/>
       <c r="N7" s="218"/>
       <c r="O7" s="218"/>
@@ -6345,7 +6287,7 @@
       <c r="B10" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="365">
+      <c r="C10" s="364">
         <v>58.6</v>
       </c>
       <c r="D10" s="233">
@@ -6378,7 +6320,7 @@
       <c r="B11" s="237" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="366">
+      <c r="C11" s="365">
         <v>45.2</v>
       </c>
       <c r="D11" s="238">
@@ -6411,7 +6353,7 @@
       <c r="B12" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="366">
+      <c r="C12" s="365">
         <v>28.6</v>
       </c>
       <c r="D12" s="238">
@@ -6444,7 +6386,7 @@
       <c r="B13" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="366">
+      <c r="C13" s="365">
         <v>45.3</v>
       </c>
       <c r="D13" s="238">
@@ -6477,7 +6419,7 @@
       <c r="B14" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="366">
+      <c r="C14" s="365">
         <v>70</v>
       </c>
       <c r="D14" s="238">
@@ -6510,7 +6452,7 @@
       <c r="B15" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="366">
+      <c r="C15" s="365">
         <v>9.1</v>
       </c>
       <c r="D15" s="238">
@@ -6543,7 +6485,7 @@
       <c r="B16" s="237" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="366">
+      <c r="C16" s="365">
         <v>46</v>
       </c>
       <c r="D16" s="238">
@@ -6576,7 +6518,7 @@
       <c r="B17" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="366">
+      <c r="C17" s="365">
         <v>57.9</v>
       </c>
       <c r="D17" s="238">
@@ -6606,12 +6548,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="221"/>
-      <c r="B18" s="500" t="s">
+      <c r="B18" s="515" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="501"/>
-      <c r="D18" s="501"/>
-      <c r="E18" s="502"/>
+      <c r="C18" s="516"/>
+      <c r="D18" s="516"/>
+      <c r="E18" s="517"/>
       <c r="F18" s="118" t="s">
         <v>16</v>
       </c>
@@ -6655,6 +6597,14 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -6666,14 +6616,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6720,7 +6662,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6759,47 +6701,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="135"/>
-      <c r="B2" s="460"/>
-      <c r="C2" s="461"/>
-      <c r="D2" s="462"/>
-      <c r="E2" s="469" t="s">
+      <c r="B2" s="483"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="470"/>
-      <c r="G2" s="470"/>
-      <c r="H2" s="471"/>
-      <c r="I2" s="475" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="476"/>
-      <c r="K2" s="479">
+      <c r="J2" s="499"/>
+      <c r="K2" s="502">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="480"/>
+      <c r="L2" s="503"/>
       <c r="M2" s="136"/>
       <c r="N2" s="137"/>
       <c r="O2" s="138"/>
-      <c r="P2" s="503"/>
-      <c r="Q2" s="503"/>
+      <c r="P2" s="519"/>
+      <c r="Q2" s="519"/>
       <c r="R2" s="139"/>
       <c r="S2" s="140"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="135"/>
-      <c r="B3" s="463"/>
-      <c r="C3" s="464"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="472" t="s">
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="473"/>
-      <c r="G3" s="473"/>
-      <c r="H3" s="474"/>
-      <c r="I3" s="477"/>
-      <c r="J3" s="478"/>
-      <c r="K3" s="481"/>
-      <c r="L3" s="482"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="504"/>
+      <c r="L3" s="505"/>
       <c r="M3" s="141"/>
       <c r="N3" s="142"/>
       <c r="O3" s="142"/>
@@ -6810,9 +6752,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="135"/>
-      <c r="B4" s="466"/>
-      <c r="C4" s="467"/>
-      <c r="D4" s="468"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -6831,22 +6773,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="135"/>
-      <c r="B5" s="445" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="483"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="476"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="484"/>
-      <c r="J5" s="485"/>
-      <c r="K5" s="486"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="144"/>
       <c r="N5" s="142"/>
       <c r="O5" s="142"/>
@@ -6857,22 +6799,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="135"/>
-      <c r="B6" s="445" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="483"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="476"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="450"/>
-      <c r="F6" s="450"/>
-      <c r="G6" s="450"/>
-      <c r="H6" s="451"/>
-      <c r="I6" s="484"/>
-      <c r="J6" s="485"/>
-      <c r="K6" s="486"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="141"/>
       <c r="N6" s="142"/>
       <c r="O6" s="142"/>
@@ -6883,27 +6825,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="135"/>
-      <c r="B7" s="452" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="487"/>
-      <c r="D7" s="405">
+      <c r="C7" s="480"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="454"/>
-      <c r="F7" s="454"/>
-      <c r="G7" s="454"/>
-      <c r="H7" s="455"/>
-      <c r="I7" s="488" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="487"/>
-      <c r="K7" s="393">
+      <c r="J7" s="480"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="144"/>
       <c r="N7" s="142"/>
       <c r="O7" s="142"/>
@@ -6971,7 +6913,7 @@
       <c r="B10" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="368">
+      <c r="C10" s="367">
         <v>42</v>
       </c>
       <c r="D10" s="157" t="s">
@@ -7004,7 +6946,7 @@
       <c r="B11" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="368">
+      <c r="C11" s="367">
         <v>27.2</v>
       </c>
       <c r="D11" s="157" t="s">
@@ -7037,7 +6979,7 @@
       <c r="B12" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="367">
+      <c r="C12" s="366">
         <v>60</v>
       </c>
       <c r="D12" s="157" t="s">
@@ -7071,7 +7013,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="367">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D13" s="157">
         <v>0.1</v>
@@ -7103,7 +7045,7 @@
       <c r="B14" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="367">
+      <c r="C14" s="366">
         <v>12.7</v>
       </c>
       <c r="D14" s="157">
@@ -7136,7 +7078,7 @@
       <c r="B15" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="367">
+      <c r="C15" s="366">
         <v>50.6</v>
       </c>
       <c r="D15" s="157">
@@ -7169,7 +7111,7 @@
       <c r="B16" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="367">
+      <c r="C16" s="366">
         <v>62</v>
       </c>
       <c r="D16" s="157">
@@ -7284,17 +7226,6 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7302,6 +7233,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7324,7 +7266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -7367,47 +7309,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="268"/>
-      <c r="B2" s="460"/>
-      <c r="C2" s="461"/>
-      <c r="D2" s="462"/>
-      <c r="E2" s="469" t="s">
+      <c r="B2" s="483"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="470"/>
-      <c r="G2" s="470"/>
-      <c r="H2" s="471"/>
-      <c r="I2" s="475" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="476"/>
-      <c r="K2" s="505">
+      <c r="J2" s="499"/>
+      <c r="K2" s="521">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="506"/>
+      <c r="L2" s="522"/>
       <c r="M2" s="269"/>
       <c r="N2" s="270"/>
       <c r="O2" s="271"/>
-      <c r="P2" s="504"/>
-      <c r="Q2" s="504"/>
+      <c r="P2" s="520"/>
+      <c r="Q2" s="520"/>
       <c r="R2" s="272"/>
       <c r="S2" s="273"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="268"/>
-      <c r="B3" s="463"/>
-      <c r="C3" s="464"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="472" t="s">
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="473"/>
-      <c r="G3" s="473"/>
-      <c r="H3" s="474"/>
-      <c r="I3" s="477"/>
-      <c r="J3" s="478"/>
-      <c r="K3" s="507"/>
-      <c r="L3" s="508"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="523"/>
+      <c r="L3" s="524"/>
       <c r="M3" s="274"/>
       <c r="N3" s="275"/>
       <c r="O3" s="275"/>
@@ -7418,9 +7360,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="268"/>
-      <c r="B4" s="466"/>
-      <c r="C4" s="467"/>
-      <c r="D4" s="468"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -7439,22 +7381,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="268"/>
-      <c r="B5" s="445" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="483"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="476"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="484"/>
-      <c r="J5" s="485"/>
-      <c r="K5" s="486"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="277"/>
       <c r="N5" s="275"/>
       <c r="O5" s="275"/>
@@ -7465,22 +7407,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="268"/>
-      <c r="B6" s="445" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="483"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="476"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="450"/>
-      <c r="F6" s="450"/>
-      <c r="G6" s="450"/>
-      <c r="H6" s="451"/>
-      <c r="I6" s="484"/>
-      <c r="J6" s="485"/>
-      <c r="K6" s="486"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="274"/>
       <c r="N6" s="275"/>
       <c r="O6" s="275"/>
@@ -7491,27 +7433,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="268"/>
-      <c r="B7" s="452" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="487"/>
-      <c r="D7" s="405">
+      <c r="C7" s="480"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="454"/>
-      <c r="F7" s="454"/>
-      <c r="G7" s="454"/>
-      <c r="H7" s="455"/>
-      <c r="I7" s="488" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="487"/>
-      <c r="K7" s="393">
+      <c r="J7" s="480"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="277"/>
       <c r="N7" s="275"/>
       <c r="O7" s="275"/>
@@ -7564,14 +7506,14 @@
       <c r="H9" s="286"/>
       <c r="I9" s="286"/>
       <c r="J9" s="286"/>
-      <c r="K9" s="354"/>
-      <c r="L9" s="354"/>
-      <c r="M9" s="354"/>
-      <c r="N9" s="354"/>
-      <c r="O9" s="354"/>
-      <c r="P9" s="354"/>
-      <c r="Q9" s="354"/>
-      <c r="R9" s="355"/>
+      <c r="K9" s="353"/>
+      <c r="L9" s="353"/>
+      <c r="M9" s="353"/>
+      <c r="N9" s="353"/>
+      <c r="O9" s="353"/>
+      <c r="P9" s="353"/>
+      <c r="Q9" s="353"/>
+      <c r="R9" s="354"/>
       <c r="S9" s="287"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7579,8 +7521,8 @@
       <c r="B10" s="288" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="535" t="s">
-        <v>128</v>
+      <c r="C10" s="390" t="s">
+        <v>116</v>
       </c>
       <c r="D10" s="289">
         <v>0.1</v>
@@ -7597,14 +7539,14 @@
       <c r="H10" s="290"/>
       <c r="I10" s="289"/>
       <c r="J10" s="289"/>
-      <c r="K10" s="356"/>
-      <c r="L10" s="356"/>
-      <c r="M10" s="356"/>
-      <c r="N10" s="356"/>
-      <c r="O10" s="356"/>
-      <c r="P10" s="356"/>
-      <c r="Q10" s="356"/>
-      <c r="R10" s="357"/>
+      <c r="K10" s="355"/>
+      <c r="L10" s="355"/>
+      <c r="M10" s="355"/>
+      <c r="N10" s="355"/>
+      <c r="O10" s="355"/>
+      <c r="P10" s="355"/>
+      <c r="Q10" s="355"/>
+      <c r="R10" s="356"/>
       <c r="S10" s="284"/>
     </row>
     <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -7612,7 +7554,7 @@
       <c r="B11" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="369">
+      <c r="C11" s="368">
         <v>77.8</v>
       </c>
       <c r="D11" s="293">
@@ -7630,14 +7572,14 @@
       <c r="H11" s="294"/>
       <c r="I11" s="291"/>
       <c r="J11" s="291"/>
-      <c r="K11" s="356"/>
-      <c r="L11" s="356"/>
-      <c r="M11" s="356"/>
-      <c r="N11" s="356"/>
-      <c r="O11" s="356"/>
-      <c r="P11" s="356"/>
-      <c r="Q11" s="356"/>
-      <c r="R11" s="358"/>
+      <c r="K11" s="355"/>
+      <c r="L11" s="355"/>
+      <c r="M11" s="355"/>
+      <c r="N11" s="355"/>
+      <c r="O11" s="355"/>
+      <c r="P11" s="355"/>
+      <c r="Q11" s="355"/>
+      <c r="R11" s="357"/>
       <c r="S11" s="284"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7645,7 +7587,7 @@
       <c r="B12" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="363">
+      <c r="C12" s="362">
         <v>89</v>
       </c>
       <c r="D12" s="293">
@@ -7663,14 +7605,14 @@
       <c r="H12" s="295"/>
       <c r="I12" s="293"/>
       <c r="J12" s="293"/>
-      <c r="K12" s="359"/>
-      <c r="L12" s="359"/>
-      <c r="M12" s="359"/>
-      <c r="N12" s="359"/>
-      <c r="O12" s="359"/>
-      <c r="P12" s="359"/>
-      <c r="Q12" s="359"/>
-      <c r="R12" s="360"/>
+      <c r="K12" s="358"/>
+      <c r="L12" s="358"/>
+      <c r="M12" s="358"/>
+      <c r="N12" s="358"/>
+      <c r="O12" s="358"/>
+      <c r="P12" s="358"/>
+      <c r="Q12" s="358"/>
+      <c r="R12" s="359"/>
       <c r="S12" s="284"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7678,7 +7620,7 @@
       <c r="B13" s="292" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="363">
+      <c r="C13" s="362">
         <v>12</v>
       </c>
       <c r="D13" s="293">
@@ -7696,14 +7638,14 @@
       <c r="H13" s="295"/>
       <c r="I13" s="293"/>
       <c r="J13" s="293"/>
-      <c r="K13" s="359"/>
-      <c r="L13" s="359"/>
-      <c r="M13" s="359"/>
-      <c r="N13" s="359"/>
-      <c r="O13" s="359"/>
-      <c r="P13" s="359"/>
-      <c r="Q13" s="359"/>
-      <c r="R13" s="360"/>
+      <c r="K13" s="358"/>
+      <c r="L13" s="358"/>
+      <c r="M13" s="358"/>
+      <c r="N13" s="358"/>
+      <c r="O13" s="358"/>
+      <c r="P13" s="358"/>
+      <c r="Q13" s="358"/>
+      <c r="R13" s="359"/>
       <c r="S13" s="284"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7711,7 +7653,7 @@
       <c r="B14" s="292" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="369">
+      <c r="C14" s="368">
         <v>52</v>
       </c>
       <c r="D14" s="293">
@@ -7729,14 +7671,14 @@
       <c r="H14" s="295"/>
       <c r="I14" s="293"/>
       <c r="J14" s="293"/>
-      <c r="K14" s="359"/>
-      <c r="L14" s="359"/>
-      <c r="M14" s="359"/>
-      <c r="N14" s="359"/>
-      <c r="O14" s="359"/>
-      <c r="P14" s="359"/>
-      <c r="Q14" s="359"/>
-      <c r="R14" s="360"/>
+      <c r="K14" s="358"/>
+      <c r="L14" s="358"/>
+      <c r="M14" s="358"/>
+      <c r="N14" s="358"/>
+      <c r="O14" s="358"/>
+      <c r="P14" s="358"/>
+      <c r="Q14" s="358"/>
+      <c r="R14" s="359"/>
       <c r="S14" s="284"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7750,14 +7692,14 @@
       <c r="H15" s="299"/>
       <c r="I15" s="299"/>
       <c r="J15" s="299"/>
-      <c r="K15" s="361"/>
-      <c r="L15" s="361"/>
-      <c r="M15" s="361"/>
-      <c r="N15" s="361"/>
-      <c r="O15" s="361"/>
-      <c r="P15" s="361"/>
-      <c r="Q15" s="361"/>
-      <c r="R15" s="342"/>
+      <c r="K15" s="360"/>
+      <c r="L15" s="360"/>
+      <c r="M15" s="360"/>
+      <c r="N15" s="360"/>
+      <c r="O15" s="360"/>
+      <c r="P15" s="360"/>
+      <c r="Q15" s="360"/>
+      <c r="R15" s="341"/>
       <c r="S15" s="284"/>
     </row>
     <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7784,11 +7726,6 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -7802,6 +7739,11 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -7828,114 +7770,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K46"/>
+  <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D27"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="9.109375" style="309"/>
+    <col min="1" max="3" width="9.109375" style="309"/>
+    <col min="4" max="4" width="8" style="309" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="309"/>
     <col min="7" max="7" width="9.109375" style="309" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" style="309" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="309" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.109375" style="309"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G2" s="319" t="s">
+    <row r="2" spans="1:11" s="369" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G2" s="318" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-    </row>
-    <row r="3" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G3" s="319" t="s">
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+    </row>
+    <row r="3" spans="1:11" s="369" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G3" s="318" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="320"/>
-      <c r="I3" s="320"/>
-      <c r="J3" s="320"/>
-      <c r="K3" s="320"/>
-    </row>
-    <row r="4" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G4" s="319" t="s">
+      <c r="H3" s="319"/>
+      <c r="I3" s="319"/>
+      <c r="J3" s="319"/>
+      <c r="K3" s="319"/>
+    </row>
+    <row r="4" spans="1:11" s="369" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G4" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="320"/>
-      <c r="I4" s="320"/>
-      <c r="J4" s="320"/>
-      <c r="K4" s="320"/>
-    </row>
-    <row r="5" spans="1:11" s="370" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="G6" s="371"/>
-      <c r="H6" s="319" t="s">
+      <c r="H4" s="319"/>
+      <c r="I4" s="319"/>
+      <c r="J4" s="319"/>
+      <c r="K4" s="319"/>
+    </row>
+    <row r="5" spans="1:11" s="369" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" s="369" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="G6" s="370"/>
+      <c r="H6" s="318" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="320"/>
-      <c r="J6" s="320"/>
-    </row>
-    <row r="7" spans="1:11" s="370" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="H7" s="320"/>
-      <c r="I7" s="320"/>
-      <c r="J7" s="320"/>
-    </row>
-    <row r="8" spans="1:11" s="370" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="I6" s="319"/>
+      <c r="J6" s="319"/>
+    </row>
+    <row r="7" spans="1:11" s="369" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="H7" s="319"/>
+      <c r="I7" s="319"/>
+      <c r="J7" s="319"/>
+    </row>
+    <row r="8" spans="1:11" s="369" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="G8" s="312" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="319" t="s">
+      <c r="H8" s="370"/>
+      <c r="I8" s="318" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="320"/>
-      <c r="J8" s="320"/>
+      <c r="J8" s="319"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="416" t="s">
+      <c r="A11" s="410" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="416"/>
-      <c r="C11" s="416"/>
-      <c r="D11" s="416"/>
-      <c r="E11" s="416"/>
-      <c r="F11" s="416"/>
-      <c r="G11" s="416"/>
-      <c r="H11" s="416"/>
-      <c r="I11" s="416"/>
-      <c r="J11" s="416"/>
+      <c r="B11" s="410"/>
+      <c r="C11" s="410"/>
+      <c r="D11" s="410"/>
+      <c r="E11" s="410"/>
+      <c r="F11" s="410"/>
+      <c r="G11" s="410"/>
+      <c r="H11" s="410"/>
+      <c r="I11" s="410"/>
+      <c r="J11" s="410"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="415" t="s">
+      <c r="A12" s="409" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="415"/>
-      <c r="C12" s="415"/>
-      <c r="D12" s="415"/>
-      <c r="E12" s="415"/>
-      <c r="F12" s="415"/>
-      <c r="G12" s="415"/>
-      <c r="H12" s="415"/>
-      <c r="I12" s="415"/>
-      <c r="J12" s="415"/>
+      <c r="B12" s="409"/>
+      <c r="C12" s="409"/>
+      <c r="D12" s="409"/>
+      <c r="E12" s="409"/>
+      <c r="F12" s="409"/>
+      <c r="G12" s="409"/>
+      <c r="H12" s="409"/>
+      <c r="I12" s="409"/>
+      <c r="J12" s="409"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="417" t="str">
+      <c r="A13" s="411" t="str">
         <f>Данные!A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="B13" s="416"/>
-      <c r="C13" s="416"/>
-      <c r="D13" s="416"/>
-      <c r="E13" s="416"/>
-      <c r="F13" s="416"/>
-      <c r="G13" s="416"/>
-      <c r="H13" s="416"/>
-      <c r="I13" s="416"/>
-      <c r="J13" s="416"/>
+      <c r="B13" s="410"/>
+      <c r="C13" s="410"/>
+      <c r="D13" s="410"/>
+      <c r="E13" s="410"/>
+      <c r="F13" s="410"/>
+      <c r="G13" s="410"/>
+      <c r="H13" s="410"/>
+      <c r="I13" s="410"/>
+      <c r="J13" s="410"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="313" t="s">
@@ -7968,61 +7912,61 @@
       <c r="I16" s="313"/>
       <c r="J16" s="314"/>
     </row>
-    <row r="17" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="322" t="s">
+    <row r="17" spans="1:10" s="371" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="321" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="323" t="s">
+      <c r="B17" s="322" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="323"/>
-      <c r="D17" s="324" t="str">
+      <c r="C17" s="322"/>
+      <c r="D17" s="323" t="str">
         <f>Данные!F11</f>
         <v>начальник производства</v>
       </c>
-      <c r="E17" s="323"/>
-      <c r="F17" s="323"/>
-      <c r="H17" s="323"/>
-      <c r="I17" s="323" t="str">
+      <c r="E17" s="322"/>
+      <c r="F17" s="322"/>
+      <c r="H17" s="322"/>
+      <c r="I17" s="322" t="str">
         <f>Данные!J11</f>
         <v>Я.В. Карчмит</v>
       </c>
       <c r="J17" s="314"/>
     </row>
-    <row r="18" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="322" t="s">
+    <row r="18" spans="1:10" s="371" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="321" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="323" t="s">
+      <c r="B18" s="322" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="323"/>
-      <c r="D18" s="324" t="str">
+      <c r="C18" s="322"/>
+      <c r="D18" s="323" t="str">
         <f>Данные!F12</f>
         <v>начальник производственного участка</v>
       </c>
-      <c r="E18" s="323"/>
-      <c r="F18" s="323"/>
-      <c r="G18" s="323"/>
-      <c r="I18" s="323" t="str">
+      <c r="E18" s="322"/>
+      <c r="F18" s="322"/>
+      <c r="G18" s="322"/>
+      <c r="I18" s="322" t="str">
         <f>Данные!J12</f>
         <v>Д.Е. Серков</v>
       </c>
       <c r="J18" s="314"/>
     </row>
-    <row r="19" spans="1:10" s="372" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="323"/>
-      <c r="B19" s="323"/>
-      <c r="C19" s="323"/>
-      <c r="D19" s="323" t="str">
+    <row r="19" spans="1:10" s="371" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="322"/>
+      <c r="B19" s="322"/>
+      <c r="C19" s="322"/>
+      <c r="D19" s="322" t="str">
         <f>Данные!F13</f>
         <v>начальник участка ремонта форм</v>
       </c>
-      <c r="E19" s="323"/>
-      <c r="F19" s="323"/>
-      <c r="G19" s="323"/>
-      <c r="H19" s="323"/>
-      <c r="I19" s="323" t="str">
+      <c r="E19" s="322"/>
+      <c r="F19" s="322"/>
+      <c r="G19" s="322"/>
+      <c r="H19" s="322"/>
+      <c r="I19" s="322" t="str">
         <f>Данные!J13</f>
         <v>А.Д. Гавриленко</v>
       </c>
@@ -8060,504 +8004,694 @@
       <c r="J21" s="314"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="413" t="s">
+      <c r="A22" s="415" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="413" t="s">
+      <c r="B22" s="415" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="413"/>
-      <c r="D22" s="413"/>
-      <c r="E22" s="413" t="s">
+      <c r="C22" s="415"/>
+      <c r="D22" s="415"/>
+      <c r="E22" s="415" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="413"/>
-      <c r="G22" s="414" t="s">
+      <c r="F22" s="415"/>
+      <c r="G22" s="416" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="413" t="s">
+      <c r="H22" s="415" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="413"/>
-      <c r="J22" s="413"/>
+      <c r="I22" s="415"/>
+      <c r="J22" s="415"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="413"/>
-      <c r="B23" s="413"/>
-      <c r="C23" s="413"/>
-      <c r="D23" s="413"/>
-      <c r="E23" s="413"/>
-      <c r="F23" s="413"/>
-      <c r="G23" s="414"/>
-      <c r="H23" s="413"/>
-      <c r="I23" s="413"/>
-      <c r="J23" s="413"/>
+      <c r="A23" s="415"/>
+      <c r="B23" s="415"/>
+      <c r="C23" s="415"/>
+      <c r="D23" s="415"/>
+      <c r="E23" s="415"/>
+      <c r="F23" s="415"/>
+      <c r="G23" s="416"/>
+      <c r="H23" s="415"/>
+      <c r="I23" s="415"/>
+      <c r="J23" s="415"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="510">
+      <c r="A24" s="417">
         <v>1</v>
       </c>
-      <c r="B24" s="524" t="s">
+      <c r="B24" s="525" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="525"/>
-      <c r="D24" s="526"/>
-      <c r="E24" s="511" t="str">
+      <c r="C24" s="526"/>
+      <c r="D24" s="527"/>
+      <c r="E24" s="422" t="str">
         <f>Данные!C14</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F24" s="512"/>
-      <c r="G24" s="514">
+      <c r="F24" s="423"/>
+      <c r="G24" s="426">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="516"/>
-      <c r="I24" s="517"/>
-      <c r="J24" s="518"/>
+      <c r="H24" s="428"/>
+      <c r="I24" s="429"/>
+      <c r="J24" s="430"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="522"/>
-      <c r="B25" s="530" t="str">
-        <f>Данные!A30</f>
+      <c r="A25" s="418"/>
+      <c r="B25" s="419" t="str">
+        <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
       </c>
-      <c r="C25" s="531"/>
-      <c r="D25" s="532"/>
-      <c r="E25" s="523"/>
-      <c r="F25" s="513"/>
-      <c r="G25" s="515"/>
-      <c r="H25" s="519"/>
-      <c r="I25" s="520"/>
-      <c r="J25" s="521"/>
-    </row>
-    <row r="26" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="386">
-        <f>A24+1</f>
-        <v>2</v>
-      </c>
-      <c r="B26" s="527" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="528"/>
-      <c r="D26" s="529"/>
-      <c r="E26" s="411" t="str">
+      <c r="C25" s="420"/>
+      <c r="D25" s="421"/>
+      <c r="E25" s="424"/>
+      <c r="F25" s="425"/>
+      <c r="G25" s="427"/>
+      <c r="H25" s="431"/>
+      <c r="I25" s="432"/>
+      <c r="J25" s="433"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="417">
+        <v>1</v>
+      </c>
+      <c r="B26" s="412" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="413"/>
+      <c r="D26" s="414"/>
+      <c r="E26" s="422" t="str">
         <f>Данные!C15</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F26" s="411"/>
-      <c r="G26" s="318">
+      <c r="F26" s="423"/>
+      <c r="G26" s="426">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="412"/>
-      <c r="I26" s="412"/>
-      <c r="J26" s="412"/>
+      <c r="H26" s="428"/>
+      <c r="I26" s="429"/>
+      <c r="J26" s="430"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="386">
-        <f t="shared" ref="A27:A36" si="0">A26+1</f>
-        <v>3</v>
-      </c>
-      <c r="B27" s="408" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="409"/>
-      <c r="D27" s="410"/>
-      <c r="E27" s="411" t="str">
+      <c r="A27" s="418"/>
+      <c r="B27" s="419" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C27" s="420"/>
+      <c r="D27" s="421"/>
+      <c r="E27" s="424"/>
+      <c r="F27" s="425"/>
+      <c r="G27" s="427"/>
+      <c r="H27" s="431"/>
+      <c r="I27" s="432"/>
+      <c r="J27" s="433"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="417">
+        <v>1</v>
+      </c>
+      <c r="B28" s="412" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="413"/>
+      <c r="D28" s="414"/>
+      <c r="E28" s="422" t="str">
         <f>Данные!C16</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F27" s="411"/>
-      <c r="G27" s="318">
+      <c r="F28" s="423"/>
+      <c r="G28" s="426">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="H27" s="412"/>
-      <c r="I27" s="412"/>
-      <c r="J27" s="412"/>
-    </row>
-    <row r="28" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="386">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B28" s="408" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="409"/>
-      <c r="D28" s="410"/>
-      <c r="E28" s="411" t="str">
+      <c r="H28" s="428"/>
+      <c r="I28" s="429"/>
+      <c r="J28" s="430"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="418"/>
+      <c r="B29" s="419" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C29" s="420"/>
+      <c r="D29" s="421"/>
+      <c r="E29" s="424"/>
+      <c r="F29" s="425"/>
+      <c r="G29" s="427"/>
+      <c r="H29" s="431"/>
+      <c r="I29" s="432"/>
+      <c r="J29" s="433"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="417">
+        <v>1</v>
+      </c>
+      <c r="B30" s="412" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="413"/>
+      <c r="D30" s="414"/>
+      <c r="E30" s="422" t="str">
         <f>Данные!C17</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F28" s="411"/>
-      <c r="G28" s="318">
+      <c r="F30" s="423"/>
+      <c r="G30" s="426">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="H28" s="412"/>
-      <c r="I28" s="412"/>
-      <c r="J28" s="412"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="386">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B29" s="408" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="409"/>
-      <c r="D29" s="410"/>
-      <c r="E29" s="411" t="str">
+      <c r="H30" s="428"/>
+      <c r="I30" s="429"/>
+      <c r="J30" s="430"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="529"/>
+      <c r="B31" s="419" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C31" s="420"/>
+      <c r="D31" s="421"/>
+      <c r="E31" s="528"/>
+      <c r="F31" s="425"/>
+      <c r="G31" s="427"/>
+      <c r="H31" s="431"/>
+      <c r="I31" s="432"/>
+      <c r="J31" s="433"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="417">
+        <v>1</v>
+      </c>
+      <c r="B32" s="412" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="413"/>
+      <c r="D32" s="414"/>
+      <c r="E32" s="422" t="str">
         <f>Данные!C18</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F29" s="411"/>
-      <c r="G29" s="318">
+      <c r="F32" s="423"/>
+      <c r="G32" s="426">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H29" s="412"/>
-      <c r="I29" s="412"/>
-      <c r="J29" s="412"/>
-    </row>
-    <row r="30" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="386">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B30" s="408" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="409"/>
-      <c r="D30" s="410"/>
-      <c r="E30" s="411" t="str">
+      <c r="H32" s="428"/>
+      <c r="I32" s="429"/>
+      <c r="J32" s="430"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="529"/>
+      <c r="B33" s="419" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C33" s="420"/>
+      <c r="D33" s="421"/>
+      <c r="E33" s="528"/>
+      <c r="F33" s="425"/>
+      <c r="G33" s="427"/>
+      <c r="H33" s="431"/>
+      <c r="I33" s="432"/>
+      <c r="J33" s="433"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="417">
+        <v>1</v>
+      </c>
+      <c r="B34" s="412" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="413"/>
+      <c r="D34" s="414"/>
+      <c r="E34" s="422" t="str">
         <f>Данные!C19</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F30" s="411"/>
-      <c r="G30" s="318">
+      <c r="F34" s="423"/>
+      <c r="G34" s="426">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H30" s="412"/>
-      <c r="I30" s="412"/>
-      <c r="J30" s="412"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="386">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B31" s="408" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="409"/>
-      <c r="D31" s="410"/>
-      <c r="E31" s="411" t="str">
+      <c r="H34" s="428"/>
+      <c r="I34" s="429"/>
+      <c r="J34" s="430"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="529"/>
+      <c r="B35" s="419" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C35" s="420"/>
+      <c r="D35" s="421"/>
+      <c r="E35" s="528"/>
+      <c r="F35" s="425"/>
+      <c r="G35" s="427"/>
+      <c r="H35" s="431"/>
+      <c r="I35" s="432"/>
+      <c r="J35" s="433"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="417">
+        <v>1</v>
+      </c>
+      <c r="B36" s="412" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="413"/>
+      <c r="D36" s="414"/>
+      <c r="E36" s="422" t="str">
         <f>Данные!C20</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F31" s="411"/>
-      <c r="G31" s="318">
+      <c r="F36" s="423"/>
+      <c r="G36" s="426">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H31" s="412"/>
-      <c r="I31" s="412"/>
-      <c r="J31" s="412"/>
-    </row>
-    <row r="32" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="386">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B32" s="408" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="409"/>
-      <c r="D32" s="410"/>
-      <c r="E32" s="411" t="str">
+      <c r="H36" s="428"/>
+      <c r="I36" s="429"/>
+      <c r="J36" s="430"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="529"/>
+      <c r="B37" s="419" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C37" s="420"/>
+      <c r="D37" s="421"/>
+      <c r="E37" s="528"/>
+      <c r="F37" s="425"/>
+      <c r="G37" s="427"/>
+      <c r="H37" s="431"/>
+      <c r="I37" s="432"/>
+      <c r="J37" s="433"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="417">
+        <v>1</v>
+      </c>
+      <c r="B38" s="412" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="413"/>
+      <c r="D38" s="414"/>
+      <c r="E38" s="422" t="str">
         <f>Данные!C21</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F32" s="411"/>
-      <c r="G32" s="318">
+      <c r="F38" s="423"/>
+      <c r="G38" s="426">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H32" s="412"/>
-      <c r="I32" s="412"/>
-      <c r="J32" s="412"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="386">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B33" s="408" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="409"/>
-      <c r="D33" s="410"/>
-      <c r="E33" s="411" t="str">
+      <c r="H38" s="428"/>
+      <c r="I38" s="429"/>
+      <c r="J38" s="430"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="529"/>
+      <c r="B39" s="419" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C39" s="420"/>
+      <c r="D39" s="421"/>
+      <c r="E39" s="528"/>
+      <c r="F39" s="425"/>
+      <c r="G39" s="427"/>
+      <c r="H39" s="431"/>
+      <c r="I39" s="432"/>
+      <c r="J39" s="433"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="417">
+        <v>1</v>
+      </c>
+      <c r="B40" s="412" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="413"/>
+      <c r="D40" s="414"/>
+      <c r="E40" s="422" t="str">
         <f>Данные!C23</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F33" s="411"/>
-      <c r="G33" s="318">
+      <c r="F40" s="423"/>
+      <c r="G40" s="426">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H33" s="412"/>
-      <c r="I33" s="412"/>
-      <c r="J33" s="412"/>
-    </row>
-    <row r="34" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="386">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B34" s="408" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="409"/>
-      <c r="D34" s="410"/>
-      <c r="E34" s="411" t="str">
-        <f>Данные!C23</f>
+      <c r="H40" s="428"/>
+      <c r="I40" s="429"/>
+      <c r="J40" s="430"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="529"/>
+      <c r="B41" s="419" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C41" s="420"/>
+      <c r="D41" s="421"/>
+      <c r="E41" s="528"/>
+      <c r="F41" s="425"/>
+      <c r="G41" s="427"/>
+      <c r="H41" s="431"/>
+      <c r="I41" s="432"/>
+      <c r="J41" s="433"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="417">
+        <v>1</v>
+      </c>
+      <c r="B42" s="412" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="413"/>
+      <c r="D42" s="414"/>
+      <c r="E42" s="422" t="str">
+        <f>Данные!C26</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F34" s="411"/>
-      <c r="G34" s="318">
+      <c r="F42" s="423"/>
+      <c r="G42" s="426">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H34" s="412"/>
-      <c r="I34" s="412"/>
-      <c r="J34" s="412"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="386">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B35" s="408" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="409"/>
-      <c r="D35" s="410"/>
-      <c r="E35" s="411"/>
-      <c r="F35" s="411"/>
-      <c r="G35" s="388">
+      <c r="H42" s="428"/>
+      <c r="I42" s="429"/>
+      <c r="J42" s="430"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="529"/>
+      <c r="B43" s="419" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C43" s="420"/>
+      <c r="D43" s="421"/>
+      <c r="E43" s="528"/>
+      <c r="F43" s="425"/>
+      <c r="G43" s="427"/>
+      <c r="H43" s="431"/>
+      <c r="I43" s="432"/>
+      <c r="J43" s="433"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="417">
+        <v>1</v>
+      </c>
+      <c r="B44" s="412" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="413"/>
+      <c r="D44" s="414"/>
+      <c r="E44" s="422">
+        <f>Данные!C27</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="423"/>
+      <c r="G44" s="426">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H35" s="412"/>
-      <c r="I35" s="412"/>
-      <c r="J35" s="412"/>
-    </row>
-    <row r="36" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="386">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B36" s="408" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="409"/>
-      <c r="D36" s="410"/>
-      <c r="E36" s="411" t="str">
+      <c r="H44" s="428"/>
+      <c r="I44" s="429"/>
+      <c r="J44" s="430"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="529"/>
+      <c r="B45" s="419" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C45" s="420"/>
+      <c r="D45" s="421"/>
+      <c r="E45" s="528"/>
+      <c r="F45" s="425"/>
+      <c r="G45" s="427"/>
+      <c r="H45" s="431"/>
+      <c r="I45" s="432"/>
+      <c r="J45" s="433"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="417">
+        <v>1</v>
+      </c>
+      <c r="B46" s="412" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="413"/>
+      <c r="D46" s="414"/>
+      <c r="E46" s="422" t="str">
         <f>Данные!C24</f>
         <v>В-30-4А-500</v>
       </c>
-      <c r="F36" s="411"/>
-      <c r="G36" s="318">
+      <c r="F46" s="423"/>
+      <c r="G46" s="426">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H36" s="412"/>
-      <c r="I36" s="412"/>
-      <c r="J36" s="412"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="313"/>
-      <c r="B37" s="313"/>
-      <c r="C37" s="313"/>
-      <c r="D37" s="313"/>
-      <c r="E37" s="313"/>
-      <c r="F37" s="313"/>
-      <c r="G37" s="313"/>
-      <c r="H37" s="313"/>
-      <c r="I37" s="313"/>
-      <c r="J37" s="314"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="313" t="s">
+      <c r="H46" s="428"/>
+      <c r="I46" s="429"/>
+      <c r="J46" s="430"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="529"/>
+      <c r="B47" s="419" t="str">
+        <f>Данные!$A$30</f>
+        <v>(к серийному формокомплекту Бутылка В-30-4А-500 БАЙРОН)</v>
+      </c>
+      <c r="C47" s="420"/>
+      <c r="D47" s="421"/>
+      <c r="E47" s="528"/>
+      <c r="F47" s="425"/>
+      <c r="G47" s="427"/>
+      <c r="H47" s="431"/>
+      <c r="I47" s="432"/>
+      <c r="J47" s="433"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="313"/>
+      <c r="B48" s="313"/>
+      <c r="C48" s="313"/>
+      <c r="D48" s="313"/>
+      <c r="E48" s="313"/>
+      <c r="F48" s="313"/>
+      <c r="G48" s="313"/>
+      <c r="H48" s="313"/>
+      <c r="I48" s="313"/>
+      <c r="J48" s="314"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="313" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="313"/>
-      <c r="C38" s="313"/>
-      <c r="D38" s="313"/>
-      <c r="E38" s="313"/>
-      <c r="F38" s="313"/>
-      <c r="G38" s="313"/>
-      <c r="H38" s="313"/>
-      <c r="I38" s="313"/>
-      <c r="J38" s="314"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="313"/>
-      <c r="B39" s="313"/>
-      <c r="C39" s="313"/>
-      <c r="D39" s="321"/>
-      <c r="E39" s="321"/>
-      <c r="F39" s="321"/>
-      <c r="G39" s="321"/>
-      <c r="H39" s="321"/>
-      <c r="I39" s="313"/>
-      <c r="J39" s="314"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="313"/>
-      <c r="B40" s="316" t="s">
+      <c r="B49" s="313"/>
+      <c r="C49" s="313"/>
+      <c r="D49" s="313"/>
+      <c r="E49" s="313"/>
+      <c r="F49" s="313"/>
+      <c r="G49" s="313"/>
+      <c r="H49" s="313"/>
+      <c r="I49" s="313"/>
+      <c r="J49" s="314"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="313"/>
+      <c r="B50" s="313"/>
+      <c r="C50" s="313"/>
+      <c r="D50" s="320"/>
+      <c r="E50" s="320"/>
+      <c r="F50" s="320"/>
+      <c r="G50" s="320"/>
+      <c r="H50" s="320"/>
+      <c r="I50" s="313"/>
+      <c r="J50" s="314"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="313"/>
+      <c r="B51" s="316" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="313" t="s">
+      <c r="C51" s="313" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="313"/>
-      <c r="E40" s="313"/>
-      <c r="F40" s="313"/>
-      <c r="G40" s="313"/>
-      <c r="H40" s="313"/>
-      <c r="I40" s="313"/>
-      <c r="J40" s="314"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="313"/>
-      <c r="B41" s="313"/>
-      <c r="C41" s="313"/>
-      <c r="D41" s="313"/>
-      <c r="E41" s="313"/>
-      <c r="F41" s="313"/>
-      <c r="G41" s="313"/>
-      <c r="H41" s="313"/>
-      <c r="I41" s="313"/>
-      <c r="J41" s="314"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="313"/>
-      <c r="B42" s="313"/>
-      <c r="C42" s="313"/>
-      <c r="D42" s="313"/>
-      <c r="E42" s="313"/>
-      <c r="G42" s="317"/>
-      <c r="H42" s="317"/>
-      <c r="I42" s="313" t="str">
+      <c r="D51" s="313"/>
+      <c r="E51" s="313"/>
+      <c r="F51" s="313"/>
+      <c r="G51" s="313"/>
+      <c r="H51" s="313"/>
+      <c r="I51" s="313"/>
+      <c r="J51" s="314"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="313"/>
+      <c r="B52" s="313"/>
+      <c r="C52" s="313"/>
+      <c r="D52" s="313"/>
+      <c r="E52" s="313"/>
+      <c r="F52" s="313"/>
+      <c r="G52" s="313"/>
+      <c r="H52" s="313"/>
+      <c r="I52" s="313"/>
+      <c r="J52" s="314"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="313"/>
+      <c r="B53" s="313"/>
+      <c r="C53" s="313"/>
+      <c r="D53" s="313"/>
+      <c r="E53" s="313"/>
+      <c r="G53" s="317"/>
+      <c r="H53" s="317"/>
+      <c r="I53" s="313" t="str">
         <f>I17</f>
         <v>Я.В. Карчмит</v>
       </c>
-      <c r="J42" s="313"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="313"/>
-      <c r="B43" s="313"/>
-      <c r="C43" s="313"/>
-      <c r="D43" s="313"/>
-      <c r="E43" s="313"/>
-      <c r="G43" s="313"/>
-      <c r="H43" s="313"/>
-      <c r="I43" s="313"/>
-      <c r="J43" s="313"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="313"/>
-      <c r="B44" s="313"/>
-      <c r="C44" s="313"/>
-      <c r="D44" s="313"/>
-      <c r="E44" s="313"/>
-      <c r="G44" s="311"/>
-      <c r="H44" s="311"/>
-      <c r="I44" s="313" t="str">
+      <c r="J53" s="313"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="313"/>
+      <c r="B54" s="313"/>
+      <c r="C54" s="313"/>
+      <c r="D54" s="313"/>
+      <c r="E54" s="313"/>
+      <c r="G54" s="313"/>
+      <c r="H54" s="313"/>
+      <c r="I54" s="313"/>
+      <c r="J54" s="313"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="313"/>
+      <c r="B55" s="313"/>
+      <c r="C55" s="313"/>
+      <c r="D55" s="313"/>
+      <c r="E55" s="313"/>
+      <c r="G55" s="311"/>
+      <c r="H55" s="311"/>
+      <c r="I55" s="313" t="str">
         <f>I18</f>
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A45" s="310"/>
-      <c r="B45" s="310"/>
-      <c r="C45" s="310"/>
-      <c r="D45" s="310"/>
-      <c r="E45" s="310"/>
-    </row>
-    <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A46" s="310"/>
-      <c r="B46" s="310"/>
-      <c r="C46" s="310"/>
-      <c r="D46" s="310"/>
-      <c r="E46" s="310"/>
-      <c r="G46" s="317"/>
-      <c r="H46" s="317"/>
-      <c r="I46" s="313" t="str">
+    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A56" s="310"/>
+      <c r="B56" s="310"/>
+      <c r="C56" s="310"/>
+      <c r="D56" s="310"/>
+      <c r="E56" s="310"/>
+    </row>
+    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A57" s="310"/>
+      <c r="B57" s="310"/>
+      <c r="C57" s="310"/>
+      <c r="D57" s="310"/>
+      <c r="E57" s="310"/>
+      <c r="G57" s="317"/>
+      <c r="H57" s="317"/>
+      <c r="I57" s="313" t="str">
         <f>I19</f>
         <v>А.Д. Гавриленко</v>
       </c>
-      <c r="J46" s="313"/>
+      <c r="J57" s="313"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:J35"/>
+  <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
     <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:J26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:J23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:J25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8569,7 +8703,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8608,47 +8742,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="418"/>
-      <c r="C2" s="419"/>
-      <c r="D2" s="420"/>
-      <c r="E2" s="427" t="s">
+      <c r="B2" s="452"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="461" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="428"/>
-      <c r="G2" s="428"/>
-      <c r="H2" s="429"/>
-      <c r="I2" s="434" t="s">
+      <c r="F2" s="462"/>
+      <c r="G2" s="462"/>
+      <c r="H2" s="463"/>
+      <c r="I2" s="468" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="435"/>
-      <c r="K2" s="438">
+      <c r="J2" s="469"/>
+      <c r="K2" s="472">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="439"/>
+      <c r="L2" s="473"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="430"/>
-      <c r="Q2" s="430"/>
+      <c r="P2" s="464"/>
+      <c r="Q2" s="464"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="421"/>
-      <c r="C3" s="422"/>
-      <c r="D3" s="423"/>
-      <c r="E3" s="431" t="s">
+      <c r="B3" s="455"/>
+      <c r="C3" s="456"/>
+      <c r="D3" s="457"/>
+      <c r="E3" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
-      <c r="H3" s="433"/>
-      <c r="I3" s="436"/>
-      <c r="J3" s="437"/>
-      <c r="K3" s="440"/>
-      <c r="L3" s="441"/>
+      <c r="F3" s="466"/>
+      <c r="G3" s="466"/>
+      <c r="H3" s="467"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="471"/>
+      <c r="K3" s="474"/>
+      <c r="L3" s="475"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -8659,9 +8793,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="424"/>
-      <c r="C4" s="425"/>
-      <c r="D4" s="426"/>
+      <c r="B4" s="458"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="460"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8680,22 +8814,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="445" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="446"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="438"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="447"/>
-      <c r="J5" s="448"/>
-      <c r="K5" s="403"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="439"/>
+      <c r="J5" s="440"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -8706,22 +8840,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="445" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="449"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="441"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="450"/>
-      <c r="F6" s="450"/>
-      <c r="G6" s="450"/>
-      <c r="H6" s="451"/>
-      <c r="I6" s="447"/>
-      <c r="J6" s="448"/>
-      <c r="K6" s="403"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="439"/>
+      <c r="J6" s="440"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -8732,27 +8866,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="452" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="453"/>
-      <c r="D7" s="405">
+      <c r="C7" s="445"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="454"/>
-      <c r="F7" s="454"/>
-      <c r="G7" s="454"/>
-      <c r="H7" s="455"/>
-      <c r="I7" s="452" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="444" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="456"/>
-      <c r="K7" s="393">
+      <c r="J7" s="448"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -8806,13 +8940,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="327"/>
-      <c r="M9" s="327"/>
-      <c r="N9" s="327"/>
-      <c r="O9" s="327"/>
-      <c r="P9" s="327"/>
-      <c r="Q9" s="327"/>
-      <c r="R9" s="328"/>
+      <c r="L9" s="326"/>
+      <c r="M9" s="326"/>
+      <c r="N9" s="326"/>
+      <c r="O9" s="326"/>
+      <c r="P9" s="326"/>
+      <c r="Q9" s="326"/>
+      <c r="R9" s="327"/>
       <c r="S9" s="199"/>
     </row>
     <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8839,13 +8973,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="329"/>
-      <c r="M10" s="329"/>
-      <c r="N10" s="329"/>
-      <c r="O10" s="329"/>
-      <c r="P10" s="329"/>
-      <c r="Q10" s="329"/>
-      <c r="R10" s="330"/>
+      <c r="L10" s="328"/>
+      <c r="M10" s="328"/>
+      <c r="N10" s="328"/>
+      <c r="O10" s="328"/>
+      <c r="P10" s="328"/>
+      <c r="Q10" s="328"/>
+      <c r="R10" s="329"/>
       <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8853,8 +8987,8 @@
       <c r="B11" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="325">
-        <v>136.19999999999999</v>
+      <c r="C11" s="324">
+        <v>152.4</v>
       </c>
       <c r="D11" s="98">
         <v>0.1</v>
@@ -8872,13 +9006,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="331"/>
-      <c r="M11" s="331"/>
-      <c r="N11" s="331"/>
-      <c r="O11" s="331"/>
-      <c r="P11" s="331"/>
-      <c r="Q11" s="331"/>
-      <c r="R11" s="332"/>
+      <c r="L11" s="330"/>
+      <c r="M11" s="330"/>
+      <c r="N11" s="330"/>
+      <c r="O11" s="330"/>
+      <c r="P11" s="330"/>
+      <c r="Q11" s="330"/>
+      <c r="R11" s="331"/>
       <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8905,13 +9039,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="331"/>
-      <c r="M12" s="331"/>
-      <c r="N12" s="331"/>
-      <c r="O12" s="331"/>
-      <c r="P12" s="331"/>
-      <c r="Q12" s="331"/>
-      <c r="R12" s="332"/>
+      <c r="L12" s="330"/>
+      <c r="M12" s="330"/>
+      <c r="N12" s="330"/>
+      <c r="O12" s="330"/>
+      <c r="P12" s="330"/>
+      <c r="Q12" s="330"/>
+      <c r="R12" s="331"/>
       <c r="S12" s="86"/>
     </row>
     <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8919,7 +9053,7 @@
       <c r="B13" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="325">
+      <c r="C13" s="324">
         <v>5</v>
       </c>
       <c r="D13" s="98">
@@ -8938,13 +9072,13 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="331"/>
-      <c r="M13" s="331"/>
-      <c r="N13" s="331"/>
-      <c r="O13" s="331"/>
-      <c r="P13" s="331"/>
-      <c r="Q13" s="331"/>
-      <c r="R13" s="332"/>
+      <c r="L13" s="330"/>
+      <c r="M13" s="330"/>
+      <c r="N13" s="330"/>
+      <c r="O13" s="330"/>
+      <c r="P13" s="330"/>
+      <c r="Q13" s="330"/>
+      <c r="R13" s="331"/>
       <c r="S13" s="86"/>
     </row>
     <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8952,7 +9086,7 @@
       <c r="B14" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="325">
+      <c r="C14" s="324">
         <v>10</v>
       </c>
       <c r="D14" s="98">
@@ -8971,13 +9105,13 @@
       <c r="I14" s="98"/>
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
-      <c r="L14" s="331"/>
-      <c r="M14" s="331"/>
-      <c r="N14" s="331"/>
-      <c r="O14" s="331"/>
-      <c r="P14" s="331"/>
-      <c r="Q14" s="331"/>
-      <c r="R14" s="332"/>
+      <c r="L14" s="330"/>
+      <c r="M14" s="330"/>
+      <c r="N14" s="330"/>
+      <c r="O14" s="330"/>
+      <c r="P14" s="330"/>
+      <c r="Q14" s="330"/>
+      <c r="R14" s="331"/>
       <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8985,7 +9119,7 @@
       <c r="B15" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="533">
+      <c r="C15" s="388">
         <v>245.9</v>
       </c>
       <c r="D15" s="98">
@@ -9004,13 +9138,13 @@
       <c r="I15" s="98"/>
       <c r="J15" s="98"/>
       <c r="K15" s="98"/>
-      <c r="L15" s="331"/>
-      <c r="M15" s="331"/>
-      <c r="N15" s="331"/>
-      <c r="O15" s="331"/>
-      <c r="P15" s="331"/>
-      <c r="Q15" s="331"/>
-      <c r="R15" s="332"/>
+      <c r="L15" s="330"/>
+      <c r="M15" s="330"/>
+      <c r="N15" s="330"/>
+      <c r="O15" s="330"/>
+      <c r="P15" s="330"/>
+      <c r="Q15" s="330"/>
+      <c r="R15" s="331"/>
       <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9037,13 +9171,13 @@
       <c r="I16" s="98"/>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
-      <c r="L16" s="331"/>
-      <c r="M16" s="331"/>
-      <c r="N16" s="331"/>
-      <c r="O16" s="331"/>
-      <c r="P16" s="331"/>
-      <c r="Q16" s="331"/>
-      <c r="R16" s="332"/>
+      <c r="L16" s="330"/>
+      <c r="M16" s="330"/>
+      <c r="N16" s="330"/>
+      <c r="O16" s="330"/>
+      <c r="P16" s="330"/>
+      <c r="Q16" s="330"/>
+      <c r="R16" s="331"/>
       <c r="S16" s="86"/>
     </row>
     <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9051,8 +9185,8 @@
       <c r="B17" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="325">
-        <v>136.19999999999999</v>
+      <c r="C17" s="324">
+        <v>138</v>
       </c>
       <c r="D17" s="98">
         <v>0.05</v>
@@ -9070,13 +9204,13 @@
       <c r="I17" s="98"/>
       <c r="J17" s="98"/>
       <c r="K17" s="98"/>
-      <c r="L17" s="331"/>
-      <c r="M17" s="331"/>
-      <c r="N17" s="331"/>
-      <c r="O17" s="331"/>
-      <c r="P17" s="331"/>
-      <c r="Q17" s="331"/>
-      <c r="R17" s="332"/>
+      <c r="L17" s="330"/>
+      <c r="M17" s="330"/>
+      <c r="N17" s="330"/>
+      <c r="O17" s="330"/>
+      <c r="P17" s="330"/>
+      <c r="Q17" s="330"/>
+      <c r="R17" s="331"/>
       <c r="S17" s="86"/>
     </row>
     <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -9085,7 +9219,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D18" s="106">
         <v>0.05</v>
@@ -9103,13 +9237,13 @@
       <c r="I18" s="106"/>
       <c r="J18" s="106"/>
       <c r="K18" s="106"/>
-      <c r="L18" s="333"/>
-      <c r="M18" s="333"/>
-      <c r="N18" s="333"/>
-      <c r="O18" s="333"/>
-      <c r="P18" s="333"/>
-      <c r="Q18" s="333"/>
-      <c r="R18" s="334"/>
+      <c r="L18" s="332"/>
+      <c r="M18" s="332"/>
+      <c r="N18" s="332"/>
+      <c r="O18" s="332"/>
+      <c r="P18" s="332"/>
+      <c r="Q18" s="332"/>
+      <c r="R18" s="333"/>
       <c r="S18" s="86"/>
     </row>
     <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9136,13 +9270,13 @@
       <c r="I19" s="106"/>
       <c r="J19" s="106"/>
       <c r="K19" s="106"/>
-      <c r="L19" s="333"/>
-      <c r="M19" s="333"/>
-      <c r="N19" s="333"/>
-      <c r="O19" s="333"/>
-      <c r="P19" s="333"/>
-      <c r="Q19" s="333"/>
-      <c r="R19" s="334"/>
+      <c r="L19" s="332"/>
+      <c r="M19" s="332"/>
+      <c r="N19" s="332"/>
+      <c r="O19" s="332"/>
+      <c r="P19" s="332"/>
+      <c r="Q19" s="332"/>
+      <c r="R19" s="333"/>
       <c r="S19" s="86"/>
     </row>
     <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9151,7 +9285,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D20" s="106">
         <v>0.05</v>
@@ -9169,13 +9303,13 @@
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
       <c r="K20" s="106"/>
-      <c r="L20" s="333"/>
-      <c r="M20" s="333"/>
-      <c r="N20" s="333"/>
-      <c r="O20" s="333"/>
-      <c r="P20" s="333"/>
-      <c r="Q20" s="333"/>
-      <c r="R20" s="334"/>
+      <c r="L20" s="332"/>
+      <c r="M20" s="332"/>
+      <c r="N20" s="332"/>
+      <c r="O20" s="332"/>
+      <c r="P20" s="332"/>
+      <c r="Q20" s="332"/>
+      <c r="R20" s="333"/>
       <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -9183,7 +9317,7 @@
       <c r="B21" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="326">
+      <c r="C21" s="325">
         <v>0.2</v>
       </c>
       <c r="D21" s="106">
@@ -9202,13 +9336,13 @@
       <c r="I21" s="106"/>
       <c r="J21" s="106"/>
       <c r="K21" s="106"/>
-      <c r="L21" s="333"/>
-      <c r="M21" s="333"/>
-      <c r="N21" s="333"/>
-      <c r="O21" s="333"/>
-      <c r="P21" s="333"/>
-      <c r="Q21" s="333"/>
-      <c r="R21" s="334"/>
+      <c r="L21" s="332"/>
+      <c r="M21" s="332"/>
+      <c r="N21" s="332"/>
+      <c r="O21" s="332"/>
+      <c r="P21" s="332"/>
+      <c r="Q21" s="332"/>
+      <c r="R21" s="333"/>
       <c r="S21" s="86"/>
     </row>
     <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -9216,7 +9350,7 @@
       <c r="B22" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="326">
+      <c r="C22" s="325">
         <v>0.2</v>
       </c>
       <c r="D22" s="106">
@@ -9235,23 +9369,23 @@
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
       <c r="K22" s="106"/>
-      <c r="L22" s="333"/>
-      <c r="M22" s="333"/>
-      <c r="N22" s="333"/>
-      <c r="O22" s="333"/>
-      <c r="P22" s="333"/>
-      <c r="Q22" s="333"/>
-      <c r="R22" s="334"/>
+      <c r="L22" s="332"/>
+      <c r="M22" s="332"/>
+      <c r="N22" s="332"/>
+      <c r="O22" s="332"/>
+      <c r="P22" s="332"/>
+      <c r="Q22" s="332"/>
+      <c r="R22" s="333"/>
       <c r="S22" s="86"/>
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="457" t="s">
+      <c r="B23" s="449" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="458"/>
-      <c r="D23" s="458"/>
-      <c r="E23" s="459"/>
+      <c r="C23" s="450"/>
+      <c r="D23" s="450"/>
+      <c r="E23" s="451"/>
       <c r="F23" s="118" t="s">
         <v>16</v>
       </c>
@@ -9262,23 +9396,23 @@
       <c r="I23" s="106"/>
       <c r="J23" s="106"/>
       <c r="K23" s="106"/>
-      <c r="L23" s="333"/>
-      <c r="M23" s="333"/>
-      <c r="N23" s="333"/>
-      <c r="O23" s="333"/>
-      <c r="P23" s="333"/>
-      <c r="Q23" s="333"/>
-      <c r="R23" s="334"/>
+      <c r="L23" s="332"/>
+      <c r="M23" s="332"/>
+      <c r="N23" s="332"/>
+      <c r="O23" s="332"/>
+      <c r="P23" s="332"/>
+      <c r="Q23" s="332"/>
+      <c r="R23" s="333"/>
       <c r="S23" s="86"/>
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="442" t="s">
+      <c r="B24" s="434" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="443"/>
-      <c r="D24" s="443"/>
-      <c r="E24" s="444"/>
+      <c r="C24" s="435"/>
+      <c r="D24" s="435"/>
+      <c r="E24" s="436"/>
       <c r="F24" s="118" t="s">
         <v>16</v>
       </c>
@@ -9289,13 +9423,13 @@
       <c r="I24" s="110"/>
       <c r="J24" s="110"/>
       <c r="K24" s="110"/>
-      <c r="L24" s="335"/>
-      <c r="M24" s="335"/>
-      <c r="N24" s="335"/>
-      <c r="O24" s="335"/>
-      <c r="P24" s="335"/>
-      <c r="Q24" s="335"/>
-      <c r="R24" s="336"/>
+      <c r="L24" s="334"/>
+      <c r="M24" s="334"/>
+      <c r="N24" s="334"/>
+      <c r="O24" s="334"/>
+      <c r="P24" s="334"/>
+      <c r="Q24" s="334"/>
+      <c r="R24" s="335"/>
       <c r="S24" s="86"/>
     </row>
     <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9322,6 +9456,12 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -9336,12 +9476,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -9407,50 +9541,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="460">
+      <c r="B2" s="483">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="461"/>
-      <c r="D2" s="462"/>
-      <c r="E2" s="469" t="s">
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="470"/>
-      <c r="G2" s="470"/>
-      <c r="H2" s="471"/>
-      <c r="I2" s="475" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="476"/>
-      <c r="K2" s="479">
+      <c r="J2" s="499"/>
+      <c r="K2" s="502">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="480"/>
+      <c r="L2" s="503"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="430"/>
-      <c r="Q2" s="430"/>
+      <c r="P2" s="464"/>
+      <c r="Q2" s="464"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="463"/>
-      <c r="C3" s="464"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="472" t="s">
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="473"/>
-      <c r="G3" s="473"/>
-      <c r="H3" s="474"/>
-      <c r="I3" s="477"/>
-      <c r="J3" s="478"/>
-      <c r="K3" s="481"/>
-      <c r="L3" s="482"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="504"/>
+      <c r="L3" s="505"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9461,9 +9595,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="466"/>
-      <c r="C4" s="467"/>
-      <c r="D4" s="468"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -9482,22 +9616,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="445" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="483"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="476"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="484"/>
-      <c r="J5" s="485"/>
-      <c r="K5" s="486"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9508,22 +9642,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="445" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="483"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="476"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="450"/>
-      <c r="F6" s="450"/>
-      <c r="G6" s="450"/>
-      <c r="H6" s="451"/>
-      <c r="I6" s="484"/>
-      <c r="J6" s="485"/>
-      <c r="K6" s="486"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9534,27 +9668,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="452" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="487"/>
-      <c r="D7" s="405">
+      <c r="C7" s="480"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="454"/>
-      <c r="F7" s="454"/>
-      <c r="G7" s="454"/>
-      <c r="H7" s="455"/>
-      <c r="I7" s="488" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="487"/>
-      <c r="K7" s="393">
+      <c r="J7" s="480"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -9608,13 +9742,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="327"/>
-      <c r="M9" s="327"/>
-      <c r="N9" s="327"/>
-      <c r="O9" s="327"/>
-      <c r="P9" s="327"/>
-      <c r="Q9" s="327"/>
-      <c r="R9" s="328"/>
+      <c r="L9" s="326"/>
+      <c r="M9" s="326"/>
+      <c r="N9" s="326"/>
+      <c r="O9" s="326"/>
+      <c r="P9" s="326"/>
+      <c r="Q9" s="326"/>
+      <c r="R9" s="327"/>
       <c r="S9" s="90"/>
     </row>
     <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -9623,7 +9757,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D10" s="93">
         <v>0.05</v>
@@ -9641,13 +9775,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="329"/>
-      <c r="M10" s="329"/>
-      <c r="N10" s="329"/>
-      <c r="O10" s="329"/>
-      <c r="P10" s="329"/>
-      <c r="Q10" s="329"/>
-      <c r="R10" s="330"/>
+      <c r="L10" s="328"/>
+      <c r="M10" s="328"/>
+      <c r="N10" s="328"/>
+      <c r="O10" s="328"/>
+      <c r="P10" s="328"/>
+      <c r="Q10" s="328"/>
+      <c r="R10" s="329"/>
       <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9655,7 +9789,7 @@
       <c r="B11" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="325">
+      <c r="C11" s="324">
         <v>25.5</v>
       </c>
       <c r="D11" s="98">
@@ -9674,13 +9808,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="331"/>
-      <c r="M11" s="331"/>
-      <c r="N11" s="331"/>
-      <c r="O11" s="331"/>
-      <c r="P11" s="331"/>
-      <c r="Q11" s="331"/>
-      <c r="R11" s="332"/>
+      <c r="L11" s="330"/>
+      <c r="M11" s="330"/>
+      <c r="N11" s="330"/>
+      <c r="O11" s="330"/>
+      <c r="P11" s="330"/>
+      <c r="Q11" s="330"/>
+      <c r="R11" s="331"/>
       <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9688,7 +9822,7 @@
       <c r="B12" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="325">
+      <c r="C12" s="324">
         <v>20</v>
       </c>
       <c r="D12" s="98">
@@ -9707,13 +9841,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="331"/>
-      <c r="M12" s="331"/>
-      <c r="N12" s="331"/>
-      <c r="O12" s="331"/>
-      <c r="P12" s="331"/>
-      <c r="Q12" s="331"/>
-      <c r="R12" s="332"/>
+      <c r="L12" s="330"/>
+      <c r="M12" s="330"/>
+      <c r="N12" s="330"/>
+      <c r="O12" s="330"/>
+      <c r="P12" s="330"/>
+      <c r="Q12" s="330"/>
+      <c r="R12" s="331"/>
       <c r="S12" s="86"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9721,7 +9855,7 @@
       <c r="B13" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="533">
+      <c r="C13" s="388">
         <v>50.5</v>
       </c>
       <c r="D13" s="98">
@@ -9740,24 +9874,24 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="331"/>
-      <c r="M13" s="331"/>
-      <c r="N13" s="331"/>
-      <c r="O13" s="331"/>
-      <c r="P13" s="331"/>
-      <c r="Q13" s="331"/>
-      <c r="R13" s="332"/>
+      <c r="L13" s="330"/>
+      <c r="M13" s="330"/>
+      <c r="N13" s="330"/>
+      <c r="O13" s="330"/>
+      <c r="P13" s="330"/>
+      <c r="Q13" s="330"/>
+      <c r="R13" s="331"/>
       <c r="S13" s="86"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="457" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="458"/>
-      <c r="D14" s="458"/>
-      <c r="E14" s="458"/>
-      <c r="F14" s="489"/>
+      <c r="B14" s="449" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="450"/>
+      <c r="D14" s="450"/>
+      <c r="E14" s="450"/>
+      <c r="F14" s="482"/>
       <c r="G14" s="56" t="s">
         <v>78</v>
       </c>
@@ -9765,23 +9899,23 @@
       <c r="I14" s="106"/>
       <c r="J14" s="106"/>
       <c r="K14" s="106"/>
-      <c r="L14" s="333"/>
-      <c r="M14" s="333"/>
-      <c r="N14" s="333"/>
-      <c r="O14" s="333"/>
-      <c r="P14" s="333"/>
-      <c r="Q14" s="333"/>
-      <c r="R14" s="334"/>
+      <c r="L14" s="332"/>
+      <c r="M14" s="332"/>
+      <c r="N14" s="332"/>
+      <c r="O14" s="332"/>
+      <c r="P14" s="332"/>
+      <c r="Q14" s="332"/>
+      <c r="R14" s="333"/>
       <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="442" t="s">
+      <c r="B15" s="434" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="443"/>
-      <c r="D15" s="443"/>
-      <c r="E15" s="444"/>
+      <c r="C15" s="435"/>
+      <c r="D15" s="435"/>
+      <c r="E15" s="436"/>
       <c r="F15" s="118" t="s">
         <v>16</v>
       </c>
@@ -9792,13 +9926,13 @@
       <c r="I15" s="110"/>
       <c r="J15" s="110"/>
       <c r="K15" s="110"/>
-      <c r="L15" s="335"/>
-      <c r="M15" s="335"/>
-      <c r="N15" s="335"/>
-      <c r="O15" s="335"/>
-      <c r="P15" s="335"/>
-      <c r="Q15" s="335"/>
-      <c r="R15" s="336"/>
+      <c r="L15" s="334"/>
+      <c r="M15" s="334"/>
+      <c r="N15" s="334"/>
+      <c r="O15" s="334"/>
+      <c r="P15" s="334"/>
+      <c r="Q15" s="334"/>
+      <c r="R15" s="335"/>
       <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9832,6 +9966,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -9846,12 +9986,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -9883,10 +10017,10 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9925,47 +10059,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="418"/>
-      <c r="C2" s="419"/>
-      <c r="D2" s="420"/>
-      <c r="E2" s="427" t="s">
+      <c r="B2" s="452"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="461" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="428"/>
-      <c r="G2" s="428"/>
-      <c r="H2" s="429"/>
-      <c r="I2" s="434" t="s">
+      <c r="F2" s="462"/>
+      <c r="G2" s="462"/>
+      <c r="H2" s="463"/>
+      <c r="I2" s="468" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="435"/>
-      <c r="K2" s="438">
+      <c r="J2" s="469"/>
+      <c r="K2" s="472">
         <f>Данные!B16</f>
         <v>26</v>
       </c>
-      <c r="L2" s="439"/>
+      <c r="L2" s="473"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="430"/>
-      <c r="Q2" s="430"/>
+      <c r="P2" s="464"/>
+      <c r="Q2" s="464"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="421"/>
-      <c r="C3" s="422"/>
-      <c r="D3" s="423"/>
-      <c r="E3" s="431" t="s">
+      <c r="B3" s="455"/>
+      <c r="C3" s="456"/>
+      <c r="D3" s="457"/>
+      <c r="E3" s="465" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
-      <c r="H3" s="433"/>
-      <c r="I3" s="436"/>
-      <c r="J3" s="437"/>
-      <c r="K3" s="440"/>
-      <c r="L3" s="441"/>
+      <c r="F3" s="466"/>
+      <c r="G3" s="466"/>
+      <c r="H3" s="467"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="471"/>
+      <c r="K3" s="474"/>
+      <c r="L3" s="475"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9976,9 +10110,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="424"/>
-      <c r="C4" s="425"/>
-      <c r="D4" s="426"/>
+      <c r="B4" s="458"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="460"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -9997,22 +10131,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="445" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="446"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="438"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="447"/>
-      <c r="J5" s="448"/>
-      <c r="K5" s="403"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="439"/>
+      <c r="J5" s="440"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -10023,22 +10157,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="445" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="449"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="441"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="450"/>
-      <c r="F6" s="450"/>
-      <c r="G6" s="450"/>
-      <c r="H6" s="451"/>
-      <c r="I6" s="447"/>
-      <c r="J6" s="448"/>
-      <c r="K6" s="403"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="439"/>
+      <c r="J6" s="440"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -10049,27 +10183,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="452" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="453"/>
-      <c r="D7" s="405">
+      <c r="C7" s="445"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="454"/>
-      <c r="F7" s="454"/>
-      <c r="G7" s="454"/>
-      <c r="H7" s="455"/>
-      <c r="I7" s="452" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="444" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="456"/>
-      <c r="K7" s="393">
+      <c r="J7" s="448"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10123,13 +10257,13 @@
       <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="327"/>
-      <c r="M9" s="327"/>
-      <c r="N9" s="327"/>
-      <c r="O9" s="327"/>
-      <c r="P9" s="327"/>
-      <c r="Q9" s="327"/>
-      <c r="R9" s="328"/>
+      <c r="L9" s="326"/>
+      <c r="M9" s="326"/>
+      <c r="N9" s="326"/>
+      <c r="O9" s="326"/>
+      <c r="P9" s="326"/>
+      <c r="Q9" s="326"/>
+      <c r="R9" s="327"/>
       <c r="S9" s="90"/>
       <c r="V9" s="91"/>
       <c r="W9" s="91"/>
@@ -10159,13 +10293,13 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-      <c r="L10" s="329"/>
-      <c r="M10" s="329"/>
-      <c r="N10" s="329"/>
-      <c r="O10" s="329"/>
-      <c r="P10" s="329"/>
-      <c r="Q10" s="329"/>
-      <c r="R10" s="330"/>
+      <c r="L10" s="328"/>
+      <c r="M10" s="328"/>
+      <c r="N10" s="328"/>
+      <c r="O10" s="328"/>
+      <c r="P10" s="328"/>
+      <c r="Q10" s="328"/>
+      <c r="R10" s="329"/>
       <c r="S10" s="86"/>
       <c r="V10" s="91"/>
       <c r="W10" s="91"/>
@@ -10176,7 +10310,7 @@
       <c r="B11" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="325">
+      <c r="C11" s="324">
         <v>5</v>
       </c>
       <c r="D11" s="98">
@@ -10195,13 +10329,13 @@
       <c r="I11" s="98"/>
       <c r="J11" s="98"/>
       <c r="K11" s="98"/>
-      <c r="L11" s="331"/>
-      <c r="M11" s="331"/>
-      <c r="N11" s="331"/>
-      <c r="O11" s="331"/>
-      <c r="P11" s="331"/>
-      <c r="Q11" s="331"/>
-      <c r="R11" s="332"/>
+      <c r="L11" s="330"/>
+      <c r="M11" s="330"/>
+      <c r="N11" s="330"/>
+      <c r="O11" s="330"/>
+      <c r="P11" s="330"/>
+      <c r="Q11" s="330"/>
+      <c r="R11" s="331"/>
       <c r="S11" s="86"/>
       <c r="V11" s="91"/>
       <c r="W11" s="101"/>
@@ -10212,7 +10346,7 @@
       <c r="B12" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="325">
+      <c r="C12" s="324">
         <v>10</v>
       </c>
       <c r="D12" s="98">
@@ -10231,13 +10365,13 @@
       <c r="I12" s="98"/>
       <c r="J12" s="98"/>
       <c r="K12" s="98"/>
-      <c r="L12" s="331"/>
-      <c r="M12" s="331"/>
-      <c r="N12" s="331"/>
-      <c r="O12" s="331"/>
-      <c r="P12" s="331"/>
-      <c r="Q12" s="331"/>
-      <c r="R12" s="332"/>
+      <c r="L12" s="330"/>
+      <c r="M12" s="330"/>
+      <c r="N12" s="330"/>
+      <c r="O12" s="330"/>
+      <c r="P12" s="330"/>
+      <c r="Q12" s="330"/>
+      <c r="R12" s="331"/>
       <c r="S12" s="86"/>
       <c r="V12" s="91"/>
       <c r="W12" s="102"/>
@@ -10248,7 +10382,7 @@
       <c r="B13" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="533">
+      <c r="C13" s="388">
         <v>157</v>
       </c>
       <c r="D13" s="98">
@@ -10267,13 +10401,13 @@
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
       <c r="K13" s="98"/>
-      <c r="L13" s="331"/>
-      <c r="M13" s="331"/>
-      <c r="N13" s="331"/>
-      <c r="O13" s="331"/>
-      <c r="P13" s="331"/>
-      <c r="Q13" s="331"/>
-      <c r="R13" s="332"/>
+      <c r="L13" s="330"/>
+      <c r="M13" s="330"/>
+      <c r="N13" s="330"/>
+      <c r="O13" s="330"/>
+      <c r="P13" s="330"/>
+      <c r="Q13" s="330"/>
+      <c r="R13" s="331"/>
       <c r="S13" s="86"/>
       <c r="V13" s="91"/>
       <c r="W13" s="102"/>
@@ -10303,13 +10437,13 @@
       <c r="I14" s="98"/>
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
-      <c r="L14" s="331"/>
-      <c r="M14" s="331"/>
-      <c r="N14" s="331"/>
-      <c r="O14" s="331"/>
-      <c r="P14" s="331"/>
-      <c r="Q14" s="331"/>
-      <c r="R14" s="332"/>
+      <c r="L14" s="330"/>
+      <c r="M14" s="330"/>
+      <c r="N14" s="330"/>
+      <c r="O14" s="330"/>
+      <c r="P14" s="330"/>
+      <c r="Q14" s="330"/>
+      <c r="R14" s="331"/>
       <c r="S14" s="86"/>
       <c r="V14" s="91"/>
       <c r="W14" s="102"/>
@@ -10320,7 +10454,7 @@
       <c r="B15" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="325">
+      <c r="C15" s="324">
         <v>136.19999999999999</v>
       </c>
       <c r="D15" s="98">
@@ -10339,13 +10473,13 @@
       <c r="I15" s="98"/>
       <c r="J15" s="98"/>
       <c r="K15" s="98"/>
-      <c r="L15" s="331"/>
-      <c r="M15" s="331"/>
-      <c r="N15" s="331"/>
-      <c r="O15" s="331"/>
-      <c r="P15" s="331"/>
-      <c r="Q15" s="331"/>
-      <c r="R15" s="332"/>
+      <c r="L15" s="330"/>
+      <c r="M15" s="330"/>
+      <c r="N15" s="330"/>
+      <c r="O15" s="330"/>
+      <c r="P15" s="330"/>
+      <c r="Q15" s="330"/>
+      <c r="R15" s="331"/>
       <c r="S15" s="86"/>
       <c r="V15" s="91"/>
       <c r="W15" s="101"/>
@@ -10356,7 +10490,7 @@
       <c r="B16" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="325">
+      <c r="C16" s="324">
         <v>75.400000000000006</v>
       </c>
       <c r="D16" s="98">
@@ -10375,13 +10509,13 @@
       <c r="I16" s="98"/>
       <c r="J16" s="98"/>
       <c r="K16" s="98"/>
-      <c r="L16" s="331"/>
-      <c r="M16" s="331"/>
-      <c r="N16" s="331"/>
-      <c r="O16" s="331"/>
-      <c r="P16" s="331"/>
-      <c r="Q16" s="331"/>
-      <c r="R16" s="332"/>
+      <c r="L16" s="330"/>
+      <c r="M16" s="330"/>
+      <c r="N16" s="330"/>
+      <c r="O16" s="330"/>
+      <c r="P16" s="330"/>
+      <c r="Q16" s="330"/>
+      <c r="R16" s="331"/>
       <c r="S16" s="86"/>
       <c r="V16" s="91"/>
       <c r="W16" s="102"/>
@@ -10411,13 +10545,13 @@
       <c r="I17" s="98"/>
       <c r="J17" s="98"/>
       <c r="K17" s="98"/>
-      <c r="L17" s="331"/>
-      <c r="M17" s="331"/>
-      <c r="N17" s="331"/>
-      <c r="O17" s="331"/>
-      <c r="P17" s="331"/>
-      <c r="Q17" s="331"/>
-      <c r="R17" s="332"/>
+      <c r="L17" s="330"/>
+      <c r="M17" s="330"/>
+      <c r="N17" s="330"/>
+      <c r="O17" s="330"/>
+      <c r="P17" s="330"/>
+      <c r="Q17" s="330"/>
+      <c r="R17" s="331"/>
       <c r="S17" s="86"/>
       <c r="V17" s="91"/>
       <c r="W17" s="101"/>
@@ -10429,7 +10563,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D18" s="106">
         <v>0.05</v>
@@ -10447,13 +10581,13 @@
       <c r="I18" s="98"/>
       <c r="J18" s="98"/>
       <c r="K18" s="98"/>
-      <c r="L18" s="331"/>
-      <c r="M18" s="331"/>
-      <c r="N18" s="331"/>
-      <c r="O18" s="331"/>
-      <c r="P18" s="331"/>
-      <c r="Q18" s="331"/>
-      <c r="R18" s="332"/>
+      <c r="L18" s="330"/>
+      <c r="M18" s="330"/>
+      <c r="N18" s="330"/>
+      <c r="O18" s="330"/>
+      <c r="P18" s="330"/>
+      <c r="Q18" s="330"/>
+      <c r="R18" s="331"/>
       <c r="S18" s="86"/>
       <c r="V18" s="91"/>
       <c r="W18" s="101"/>
@@ -10464,7 +10598,7 @@
       <c r="B19" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="364">
+      <c r="C19" s="363">
         <v>77.8</v>
       </c>
       <c r="D19" s="106">
@@ -10483,13 +10617,13 @@
       <c r="I19" s="106"/>
       <c r="J19" s="106"/>
       <c r="K19" s="106"/>
-      <c r="L19" s="333"/>
-      <c r="M19" s="333"/>
-      <c r="N19" s="333"/>
-      <c r="O19" s="333"/>
-      <c r="P19" s="333"/>
-      <c r="Q19" s="333"/>
-      <c r="R19" s="334"/>
+      <c r="L19" s="332"/>
+      <c r="M19" s="332"/>
+      <c r="N19" s="332"/>
+      <c r="O19" s="332"/>
+      <c r="P19" s="332"/>
+      <c r="Q19" s="332"/>
+      <c r="R19" s="333"/>
       <c r="S19" s="86"/>
       <c r="V19" s="91"/>
       <c r="W19" s="101"/>
@@ -10500,7 +10634,7 @@
       <c r="B20" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="326">
+      <c r="C20" s="325">
         <v>0.25</v>
       </c>
       <c r="D20" s="106">
@@ -10519,13 +10653,13 @@
       <c r="I20" s="110"/>
       <c r="J20" s="110"/>
       <c r="K20" s="110"/>
-      <c r="L20" s="335"/>
-      <c r="M20" s="335"/>
-      <c r="N20" s="335"/>
-      <c r="O20" s="335"/>
-      <c r="P20" s="335"/>
-      <c r="Q20" s="335"/>
-      <c r="R20" s="336"/>
+      <c r="L20" s="334"/>
+      <c r="M20" s="334"/>
+      <c r="N20" s="334"/>
+      <c r="O20" s="334"/>
+      <c r="P20" s="334"/>
+      <c r="Q20" s="334"/>
+      <c r="R20" s="335"/>
       <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -10552,11 +10686,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -10570,6 +10699,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -10637,47 +10771,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="418"/>
-      <c r="C2" s="419"/>
-      <c r="D2" s="420"/>
-      <c r="E2" s="427" t="s">
+      <c r="B2" s="452"/>
+      <c r="C2" s="453"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="461" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="428"/>
-      <c r="G2" s="428"/>
-      <c r="H2" s="429"/>
-      <c r="I2" s="434" t="s">
+      <c r="F2" s="462"/>
+      <c r="G2" s="462"/>
+      <c r="H2" s="463"/>
+      <c r="I2" s="468" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="435"/>
-      <c r="K2" s="438">
+      <c r="J2" s="469"/>
+      <c r="K2" s="472">
         <f>Данные!B17</f>
         <v>26</v>
       </c>
-      <c r="L2" s="439"/>
+      <c r="L2" s="473"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="490"/>
-      <c r="Q2" s="490"/>
+      <c r="P2" s="506"/>
+      <c r="Q2" s="506"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="421"/>
-      <c r="C3" s="422"/>
-      <c r="D3" s="423"/>
-      <c r="E3" s="431" t="s">
+      <c r="B3" s="455"/>
+      <c r="C3" s="456"/>
+      <c r="D3" s="457"/>
+      <c r="E3" s="465" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
-      <c r="H3" s="433"/>
-      <c r="I3" s="436"/>
-      <c r="J3" s="437"/>
-      <c r="K3" s="440"/>
-      <c r="L3" s="441"/>
+      <c r="F3" s="466"/>
+      <c r="G3" s="466"/>
+      <c r="H3" s="467"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="471"/>
+      <c r="K3" s="474"/>
+      <c r="L3" s="475"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -10688,9 +10822,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="424"/>
-      <c r="C4" s="425"/>
-      <c r="D4" s="426"/>
+      <c r="B4" s="458"/>
+      <c r="C4" s="459"/>
+      <c r="D4" s="460"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10709,22 +10843,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="445" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="446"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="438"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="447"/>
-      <c r="J5" s="448"/>
-      <c r="K5" s="403"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="439"/>
+      <c r="J5" s="440"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10735,22 +10869,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="445" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="449"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="441"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="450"/>
-      <c r="F6" s="450"/>
-      <c r="G6" s="450"/>
-      <c r="H6" s="451"/>
-      <c r="I6" s="447"/>
-      <c r="J6" s="448"/>
-      <c r="K6" s="403"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="439"/>
+      <c r="J6" s="440"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10761,27 +10895,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="452" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="453"/>
-      <c r="D7" s="405">
+      <c r="C7" s="445"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="454"/>
-      <c r="F7" s="454"/>
-      <c r="G7" s="454"/>
-      <c r="H7" s="455"/>
-      <c r="I7" s="452" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="444" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="456"/>
-      <c r="K7" s="393">
+      <c r="J7" s="448"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -10835,13 +10969,13 @@
       <c r="I9" s="45"/>
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
-      <c r="L9" s="337"/>
-      <c r="M9" s="337"/>
-      <c r="N9" s="337"/>
-      <c r="O9" s="337"/>
-      <c r="P9" s="337"/>
-      <c r="Q9" s="337"/>
-      <c r="R9" s="338"/>
+      <c r="L9" s="336"/>
+      <c r="M9" s="336"/>
+      <c r="N9" s="336"/>
+      <c r="O9" s="336"/>
+      <c r="P9" s="336"/>
+      <c r="Q9" s="336"/>
+      <c r="R9" s="337"/>
       <c r="S9" s="38"/>
     </row>
     <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -10849,8 +10983,8 @@
       <c r="B10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="534" t="s">
-        <v>127</v>
+      <c r="C10" s="389" t="s">
+        <v>115</v>
       </c>
       <c r="D10" s="44">
         <v>0.05</v>
@@ -10868,13 +11002,13 @@
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
-      <c r="L10" s="339"/>
-      <c r="M10" s="339"/>
-      <c r="N10" s="339"/>
-      <c r="O10" s="339"/>
-      <c r="P10" s="339"/>
-      <c r="Q10" s="339"/>
-      <c r="R10" s="340"/>
+      <c r="L10" s="338"/>
+      <c r="M10" s="338"/>
+      <c r="N10" s="338"/>
+      <c r="O10" s="338"/>
+      <c r="P10" s="338"/>
+      <c r="Q10" s="338"/>
+      <c r="R10" s="339"/>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10901,13 +11035,13 @@
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
-      <c r="L11" s="339"/>
-      <c r="M11" s="339"/>
-      <c r="N11" s="339"/>
-      <c r="O11" s="339"/>
-      <c r="P11" s="339"/>
-      <c r="Q11" s="339"/>
-      <c r="R11" s="340"/>
+      <c r="L11" s="338"/>
+      <c r="M11" s="338"/>
+      <c r="N11" s="338"/>
+      <c r="O11" s="338"/>
+      <c r="P11" s="338"/>
+      <c r="Q11" s="338"/>
+      <c r="R11" s="339"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10915,7 +11049,7 @@
       <c r="B12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="343">
+      <c r="C12" s="342">
         <v>57</v>
       </c>
       <c r="D12" s="44">
@@ -10934,13 +11068,13 @@
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
-      <c r="L12" s="339"/>
-      <c r="M12" s="339"/>
-      <c r="N12" s="339"/>
-      <c r="O12" s="339"/>
-      <c r="P12" s="339"/>
-      <c r="Q12" s="339"/>
-      <c r="R12" s="340"/>
+      <c r="L12" s="338"/>
+      <c r="M12" s="338"/>
+      <c r="N12" s="338"/>
+      <c r="O12" s="338"/>
+      <c r="P12" s="338"/>
+      <c r="Q12" s="338"/>
+      <c r="R12" s="339"/>
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10948,7 +11082,7 @@
       <c r="B13" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="343">
+      <c r="C13" s="342">
         <v>50</v>
       </c>
       <c r="D13" s="44">
@@ -10967,13 +11101,13 @@
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
-      <c r="L13" s="339"/>
-      <c r="M13" s="339"/>
-      <c r="N13" s="339"/>
-      <c r="O13" s="339"/>
-      <c r="P13" s="339"/>
-      <c r="Q13" s="339"/>
-      <c r="R13" s="340"/>
+      <c r="L13" s="338"/>
+      <c r="M13" s="338"/>
+      <c r="N13" s="338"/>
+      <c r="O13" s="338"/>
+      <c r="P13" s="338"/>
+      <c r="Q13" s="338"/>
+      <c r="R13" s="339"/>
       <c r="S13" s="32"/>
     </row>
     <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10981,7 +11115,7 @@
       <c r="B14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="343">
+      <c r="C14" s="342">
         <v>62</v>
       </c>
       <c r="D14" s="44">
@@ -11000,13 +11134,13 @@
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
-      <c r="L14" s="339"/>
-      <c r="M14" s="339"/>
-      <c r="N14" s="339"/>
-      <c r="O14" s="339"/>
-      <c r="P14" s="339"/>
-      <c r="Q14" s="339"/>
-      <c r="R14" s="340"/>
+      <c r="L14" s="338"/>
+      <c r="M14" s="338"/>
+      <c r="N14" s="338"/>
+      <c r="O14" s="338"/>
+      <c r="P14" s="338"/>
+      <c r="Q14" s="338"/>
+      <c r="R14" s="339"/>
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11014,7 +11148,7 @@
       <c r="B15" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="344">
+      <c r="C15" s="343">
         <v>12.7</v>
       </c>
       <c r="D15" s="49">
@@ -11033,13 +11167,13 @@
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
-      <c r="L15" s="341"/>
-      <c r="M15" s="341"/>
-      <c r="N15" s="341"/>
-      <c r="O15" s="341"/>
-      <c r="P15" s="341"/>
-      <c r="Q15" s="341"/>
-      <c r="R15" s="342"/>
+      <c r="L15" s="340"/>
+      <c r="M15" s="340"/>
+      <c r="N15" s="340"/>
+      <c r="O15" s="340"/>
+      <c r="P15" s="340"/>
+      <c r="Q15" s="340"/>
+      <c r="R15" s="341"/>
       <c r="S15" s="32"/>
     </row>
     <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11066,6 +11200,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11073,17 +11218,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -11155,60 +11289,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="460"/>
-      <c r="C2" s="461"/>
-      <c r="D2" s="462"/>
-      <c r="E2" s="469" t="s">
+      <c r="B2" s="483"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="470"/>
-      <c r="G2" s="470"/>
-      <c r="H2" s="471"/>
-      <c r="I2" s="475" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="476"/>
-      <c r="K2" s="479">
+      <c r="J2" s="499"/>
+      <c r="K2" s="502">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="480"/>
-      <c r="M2" s="491"/>
-      <c r="N2" s="492"/>
-      <c r="O2" s="492"/>
-      <c r="P2" s="492"/>
-      <c r="Q2" s="492"/>
-      <c r="R2" s="493"/>
+      <c r="L2" s="503"/>
+      <c r="M2" s="507"/>
+      <c r="N2" s="508"/>
+      <c r="O2" s="508"/>
+      <c r="P2" s="508"/>
+      <c r="Q2" s="508"/>
+      <c r="R2" s="509"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="463"/>
-      <c r="C3" s="464"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="472" t="s">
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="473"/>
-      <c r="G3" s="473"/>
-      <c r="H3" s="474"/>
-      <c r="I3" s="477"/>
-      <c r="J3" s="478"/>
-      <c r="K3" s="481"/>
-      <c r="L3" s="482"/>
-      <c r="M3" s="494"/>
-      <c r="N3" s="495"/>
-      <c r="O3" s="495"/>
-      <c r="P3" s="495"/>
-      <c r="Q3" s="495"/>
-      <c r="R3" s="496"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="504"/>
+      <c r="L3" s="505"/>
+      <c r="M3" s="510"/>
+      <c r="N3" s="511"/>
+      <c r="O3" s="511"/>
+      <c r="P3" s="511"/>
+      <c r="Q3" s="511"/>
+      <c r="R3" s="512"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="466"/>
-      <c r="C4" s="467"/>
-      <c r="D4" s="468"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11217,95 +11351,95 @@
       <c r="J4" s="251"/>
       <c r="K4" s="254"/>
       <c r="L4" s="255"/>
-      <c r="M4" s="494"/>
-      <c r="N4" s="495"/>
-      <c r="O4" s="495"/>
-      <c r="P4" s="495"/>
-      <c r="Q4" s="495"/>
-      <c r="R4" s="496"/>
+      <c r="M4" s="510"/>
+      <c r="N4" s="511"/>
+      <c r="O4" s="511"/>
+      <c r="P4" s="511"/>
+      <c r="Q4" s="511"/>
+      <c r="R4" s="512"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="445" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="483"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="476"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="484"/>
-      <c r="J5" s="485"/>
-      <c r="K5" s="486"/>
-      <c r="L5" s="404"/>
-      <c r="M5" s="494"/>
-      <c r="N5" s="495"/>
-      <c r="O5" s="495"/>
-      <c r="P5" s="495"/>
-      <c r="Q5" s="495"/>
-      <c r="R5" s="496"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="403"/>
+      <c r="M5" s="510"/>
+      <c r="N5" s="511"/>
+      <c r="O5" s="511"/>
+      <c r="P5" s="511"/>
+      <c r="Q5" s="511"/>
+      <c r="R5" s="512"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="445" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="483"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="476"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="450"/>
-      <c r="F6" s="450"/>
-      <c r="G6" s="450"/>
-      <c r="H6" s="451"/>
-      <c r="I6" s="484"/>
-      <c r="J6" s="485"/>
-      <c r="K6" s="486"/>
-      <c r="L6" s="404"/>
-      <c r="M6" s="494"/>
-      <c r="N6" s="495"/>
-      <c r="O6" s="495"/>
-      <c r="P6" s="495"/>
-      <c r="Q6" s="495"/>
-      <c r="R6" s="496"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="403"/>
+      <c r="M6" s="510"/>
+      <c r="N6" s="511"/>
+      <c r="O6" s="511"/>
+      <c r="P6" s="511"/>
+      <c r="Q6" s="511"/>
+      <c r="R6" s="512"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="452" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="487"/>
-      <c r="D7" s="405">
+      <c r="C7" s="480"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="454"/>
-      <c r="F7" s="454"/>
-      <c r="G7" s="454"/>
-      <c r="H7" s="455"/>
-      <c r="I7" s="488" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="487"/>
-      <c r="K7" s="393">
+      <c r="J7" s="480"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
-      <c r="M7" s="494"/>
-      <c r="N7" s="495"/>
-      <c r="O7" s="495"/>
-      <c r="P7" s="495"/>
-      <c r="Q7" s="495"/>
-      <c r="R7" s="496"/>
+      <c r="L7" s="393"/>
+      <c r="M7" s="510"/>
+      <c r="N7" s="511"/>
+      <c r="O7" s="511"/>
+      <c r="P7" s="511"/>
+      <c r="Q7" s="511"/>
+      <c r="R7" s="512"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -11367,7 +11501,7 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="345">
+      <c r="C10" s="344">
         <v>75.400000000000006</v>
       </c>
       <c r="D10" s="93">
@@ -11466,7 +11600,7 @@
       <c r="B13" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="346">
+      <c r="C13" s="345">
         <v>38.1</v>
       </c>
       <c r="D13" s="133">
@@ -11499,7 +11633,7 @@
       <c r="B14" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="325">
+      <c r="C14" s="324">
         <v>45.3</v>
       </c>
       <c r="D14" s="98">
@@ -11631,7 +11765,7 @@
       <c r="B18" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="325">
+      <c r="C18" s="324">
         <v>9.52</v>
       </c>
       <c r="D18" s="98">
@@ -11727,12 +11861,12 @@
     </row>
     <row r="21" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78"/>
-      <c r="B21" s="442" t="s">
+      <c r="B21" s="434" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="443"/>
-      <c r="D21" s="443"/>
-      <c r="E21" s="444"/>
+      <c r="C21" s="435"/>
+      <c r="D21" s="435"/>
+      <c r="E21" s="436"/>
       <c r="F21" s="118" t="s">
         <v>16</v>
       </c>
@@ -11778,13 +11912,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -11797,6 +11924,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -11861,47 +11995,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="460"/>
-      <c r="C2" s="461"/>
-      <c r="D2" s="462"/>
-      <c r="E2" s="469" t="s">
+      <c r="B2" s="483"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="470"/>
-      <c r="G2" s="470"/>
-      <c r="H2" s="471"/>
-      <c r="I2" s="475" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="476"/>
-      <c r="K2" s="479">
+      <c r="J2" s="499"/>
+      <c r="K2" s="502">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="480"/>
+      <c r="L2" s="503"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="497"/>
-      <c r="Q2" s="497"/>
+      <c r="P2" s="513"/>
+      <c r="Q2" s="513"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="463"/>
-      <c r="C3" s="464"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="472" t="s">
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="473"/>
-      <c r="G3" s="473"/>
-      <c r="H3" s="474"/>
-      <c r="I3" s="477"/>
-      <c r="J3" s="478"/>
-      <c r="K3" s="481"/>
-      <c r="L3" s="482"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="504"/>
+      <c r="L3" s="505"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11912,9 +12046,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="466"/>
-      <c r="C4" s="467"/>
-      <c r="D4" s="468"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -11933,22 +12067,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="445" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="483"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="476"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="484"/>
-      <c r="J5" s="485"/>
-      <c r="K5" s="486"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11959,22 +12093,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="445" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="483"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="476"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="450"/>
-      <c r="F6" s="450"/>
-      <c r="G6" s="450"/>
-      <c r="H6" s="451"/>
-      <c r="I6" s="484"/>
-      <c r="J6" s="485"/>
-      <c r="K6" s="486"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11985,27 +12119,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="452" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="487"/>
-      <c r="D7" s="405">
+      <c r="C7" s="480"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="454"/>
-      <c r="F7" s="454"/>
-      <c r="G7" s="454"/>
-      <c r="H7" s="455"/>
-      <c r="I7" s="488" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="487"/>
-      <c r="K7" s="393">
+      <c r="J7" s="480"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12139,7 +12273,7 @@
       <c r="B12" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="325">
+      <c r="C12" s="324">
         <v>28.6</v>
       </c>
       <c r="D12" s="98">
@@ -12172,7 +12306,7 @@
       <c r="B13" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="325">
+      <c r="C13" s="324">
         <v>62</v>
       </c>
       <c r="D13" s="98">
@@ -12238,7 +12372,7 @@
       <c r="B15" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="325">
+      <c r="C15" s="324">
         <v>9.5</v>
       </c>
       <c r="D15" s="98">
@@ -12268,12 +12402,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="442" t="s">
+      <c r="B16" s="434" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="443"/>
-      <c r="D16" s="443"/>
-      <c r="E16" s="444"/>
+      <c r="C16" s="435"/>
+      <c r="D16" s="435"/>
+      <c r="E16" s="436"/>
       <c r="F16" s="261" t="s">
         <v>16</v>
       </c>
@@ -12319,15 +12453,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -12338,6 +12463,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
@@ -12405,47 +12539,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="172"/>
-      <c r="B2" s="460"/>
-      <c r="C2" s="461"/>
-      <c r="D2" s="462"/>
-      <c r="E2" s="469" t="s">
+      <c r="B2" s="483"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="492" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="470"/>
-      <c r="G2" s="470"/>
-      <c r="H2" s="471"/>
-      <c r="I2" s="475" t="s">
+      <c r="F2" s="493"/>
+      <c r="G2" s="493"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="498" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="476"/>
-      <c r="K2" s="479">
+      <c r="J2" s="499"/>
+      <c r="K2" s="502">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="480"/>
+      <c r="L2" s="503"/>
       <c r="M2" s="173"/>
       <c r="N2" s="174"/>
       <c r="O2" s="175"/>
-      <c r="P2" s="498"/>
-      <c r="Q2" s="498"/>
+      <c r="P2" s="514"/>
+      <c r="Q2" s="514"/>
       <c r="R2" s="176"/>
       <c r="S2" s="177"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="172"/>
-      <c r="B3" s="463"/>
-      <c r="C3" s="464"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="472" t="s">
+      <c r="B3" s="486"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="488"/>
+      <c r="E3" s="495" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="473"/>
-      <c r="G3" s="473"/>
-      <c r="H3" s="474"/>
-      <c r="I3" s="477"/>
-      <c r="J3" s="478"/>
-      <c r="K3" s="481"/>
-      <c r="L3" s="482"/>
+      <c r="F3" s="496"/>
+      <c r="G3" s="496"/>
+      <c r="H3" s="497"/>
+      <c r="I3" s="500"/>
+      <c r="J3" s="501"/>
+      <c r="K3" s="504"/>
+      <c r="L3" s="505"/>
       <c r="M3" s="178"/>
       <c r="N3" s="179"/>
       <c r="O3" s="179"/>
@@ -12456,9 +12590,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="172"/>
-      <c r="B4" s="466"/>
-      <c r="C4" s="467"/>
-      <c r="D4" s="468"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="490"/>
+      <c r="D4" s="491"/>
       <c r="E4" s="252"/>
       <c r="F4" s="252"/>
       <c r="G4" s="252"/>
@@ -12477,22 +12611,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="172"/>
-      <c r="B5" s="445" t="s">
+      <c r="B5" s="437" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="483"/>
-      <c r="D5" s="402" t="str">
+      <c r="C5" s="476"/>
+      <c r="D5" s="401" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="404"/>
-      <c r="I5" s="484"/>
-      <c r="J5" s="485"/>
-      <c r="K5" s="486"/>
-      <c r="L5" s="404"/>
+      <c r="E5" s="402"/>
+      <c r="F5" s="402"/>
+      <c r="G5" s="402"/>
+      <c r="H5" s="403"/>
+      <c r="I5" s="477"/>
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="403"/>
       <c r="M5" s="181"/>
       <c r="N5" s="179"/>
       <c r="O5" s="179"/>
@@ -12503,22 +12637,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="172"/>
-      <c r="B6" s="445" t="s">
+      <c r="B6" s="437" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="483"/>
-      <c r="D6" s="396" t="str">
+      <c r="C6" s="476"/>
+      <c r="D6" s="395" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-В-30-4А-500 (Байрон 0.5 л.)</v>
       </c>
-      <c r="E6" s="450"/>
-      <c r="F6" s="450"/>
-      <c r="G6" s="450"/>
-      <c r="H6" s="451"/>
-      <c r="I6" s="484"/>
-      <c r="J6" s="485"/>
-      <c r="K6" s="486"/>
-      <c r="L6" s="404"/>
+      <c r="E6" s="442"/>
+      <c r="F6" s="442"/>
+      <c r="G6" s="442"/>
+      <c r="H6" s="443"/>
+      <c r="I6" s="477"/>
+      <c r="J6" s="478"/>
+      <c r="K6" s="479"/>
+      <c r="L6" s="403"/>
       <c r="M6" s="178"/>
       <c r="N6" s="179"/>
       <c r="O6" s="179"/>
@@ -12529,27 +12663,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="172"/>
-      <c r="B7" s="452" t="s">
+      <c r="B7" s="444" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="487"/>
-      <c r="D7" s="405">
+      <c r="C7" s="480"/>
+      <c r="D7" s="404">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="454"/>
-      <c r="F7" s="454"/>
-      <c r="G7" s="454"/>
-      <c r="H7" s="455"/>
-      <c r="I7" s="488" t="s">
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="447"/>
+      <c r="I7" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="487"/>
-      <c r="K7" s="393">
+      <c r="J7" s="480"/>
+      <c r="K7" s="392">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="394"/>
+      <c r="L7" s="393"/>
       <c r="M7" s="181"/>
       <c r="N7" s="179"/>
       <c r="O7" s="179"/>
@@ -12605,11 +12739,11 @@
       <c r="K9" s="190"/>
       <c r="L9" s="190"/>
       <c r="M9" s="203"/>
-      <c r="N9" s="347"/>
-      <c r="O9" s="347"/>
-      <c r="P9" s="348"/>
-      <c r="Q9" s="347"/>
-      <c r="R9" s="349"/>
+      <c r="N9" s="346"/>
+      <c r="O9" s="346"/>
+      <c r="P9" s="347"/>
+      <c r="Q9" s="346"/>
+      <c r="R9" s="348"/>
       <c r="S9" s="204"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12638,13 +12772,13 @@
       <c r="K10" s="192"/>
       <c r="L10" s="192"/>
       <c r="M10" s="192"/>
-      <c r="N10" s="350" t="s">
+      <c r="N10" s="349" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="350"/>
-      <c r="P10" s="350"/>
-      <c r="Q10" s="350"/>
-      <c r="R10" s="351"/>
+      <c r="O10" s="349"/>
+      <c r="P10" s="349"/>
+      <c r="Q10" s="349"/>
+      <c r="R10" s="350"/>
       <c r="S10" s="188"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12673,11 +12807,11 @@
       <c r="K11" s="194"/>
       <c r="L11" s="194"/>
       <c r="M11" s="194"/>
-      <c r="N11" s="352"/>
-      <c r="O11" s="352"/>
-      <c r="P11" s="352"/>
-      <c r="Q11" s="352"/>
-      <c r="R11" s="353"/>
+      <c r="N11" s="351"/>
+      <c r="O11" s="351"/>
+      <c r="P11" s="351"/>
+      <c r="Q11" s="351"/>
+      <c r="R11" s="352"/>
       <c r="S11" s="188"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12685,7 +12819,7 @@
       <c r="B12" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="362">
+      <c r="C12" s="361">
         <v>45.2</v>
       </c>
       <c r="D12" s="194">
@@ -12706,11 +12840,11 @@
       <c r="K12" s="194"/>
       <c r="L12" s="194"/>
       <c r="M12" s="194"/>
-      <c r="N12" s="352"/>
-      <c r="O12" s="352"/>
-      <c r="P12" s="352"/>
-      <c r="Q12" s="352"/>
-      <c r="R12" s="353"/>
+      <c r="N12" s="351"/>
+      <c r="O12" s="351"/>
+      <c r="P12" s="351"/>
+      <c r="Q12" s="351"/>
+      <c r="R12" s="352"/>
       <c r="S12" s="188"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12718,7 +12852,7 @@
       <c r="B13" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="362">
+      <c r="C13" s="361">
         <v>37</v>
       </c>
       <c r="D13" s="194">
@@ -12739,11 +12873,11 @@
       <c r="K13" s="194"/>
       <c r="L13" s="194"/>
       <c r="M13" s="194"/>
-      <c r="N13" s="352"/>
-      <c r="O13" s="352"/>
-      <c r="P13" s="352"/>
-      <c r="Q13" s="352"/>
-      <c r="R13" s="353"/>
+      <c r="N13" s="351"/>
+      <c r="O13" s="351"/>
+      <c r="P13" s="351"/>
+      <c r="Q13" s="351"/>
+      <c r="R13" s="352"/>
       <c r="S13" s="188"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12751,7 +12885,7 @@
       <c r="B14" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="362">
+      <c r="C14" s="361">
         <v>28.5</v>
       </c>
       <c r="D14" s="194">
@@ -12772,11 +12906,11 @@
       <c r="K14" s="194"/>
       <c r="L14" s="194"/>
       <c r="M14" s="194"/>
-      <c r="N14" s="352"/>
-      <c r="O14" s="352"/>
-      <c r="P14" s="352"/>
-      <c r="Q14" s="352"/>
-      <c r="R14" s="353"/>
+      <c r="N14" s="351"/>
+      <c r="O14" s="351"/>
+      <c r="P14" s="351"/>
+      <c r="Q14" s="351"/>
+      <c r="R14" s="352"/>
       <c r="S14" s="188"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12784,7 +12918,7 @@
       <c r="B15" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="362">
+      <c r="C15" s="361">
         <v>9.5</v>
       </c>
       <c r="D15" s="194">
@@ -12805,11 +12939,11 @@
       <c r="K15" s="194"/>
       <c r="L15" s="194"/>
       <c r="M15" s="194"/>
-      <c r="N15" s="352"/>
-      <c r="O15" s="352"/>
-      <c r="P15" s="352"/>
-      <c r="Q15" s="352"/>
-      <c r="R15" s="353"/>
+      <c r="N15" s="351"/>
+      <c r="O15" s="351"/>
+      <c r="P15" s="351"/>
+      <c r="Q15" s="351"/>
+      <c r="R15" s="352"/>
       <c r="S15" s="188"/>
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12817,7 +12951,7 @@
       <c r="B16" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="362">
+      <c r="C16" s="361">
         <v>23.8</v>
       </c>
       <c r="D16" s="194">
@@ -12838,11 +12972,11 @@
       <c r="K16" s="194"/>
       <c r="L16" s="194"/>
       <c r="M16" s="194"/>
-      <c r="N16" s="352"/>
-      <c r="O16" s="352"/>
-      <c r="P16" s="352"/>
-      <c r="Q16" s="352"/>
-      <c r="R16" s="353"/>
+      <c r="N16" s="351"/>
+      <c r="O16" s="351"/>
+      <c r="P16" s="351"/>
+      <c r="Q16" s="351"/>
+      <c r="R16" s="352"/>
       <c r="S16" s="188"/>
     </row>
     <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
@@ -12871,11 +13005,11 @@
       <c r="K17" s="194"/>
       <c r="L17" s="194"/>
       <c r="M17" s="194"/>
-      <c r="N17" s="352"/>
-      <c r="O17" s="352"/>
-      <c r="P17" s="352"/>
-      <c r="Q17" s="352"/>
-      <c r="R17" s="353"/>
+      <c r="N17" s="351"/>
+      <c r="O17" s="351"/>
+      <c r="P17" s="351"/>
+      <c r="Q17" s="351"/>
+      <c r="R17" s="352"/>
       <c r="S17" s="188"/>
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12883,7 +13017,7 @@
       <c r="B18" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="362">
+      <c r="C18" s="361">
         <v>28.5</v>
       </c>
       <c r="D18" s="194">
@@ -12904,11 +13038,11 @@
       <c r="K18" s="194"/>
       <c r="L18" s="194"/>
       <c r="M18" s="194"/>
-      <c r="N18" s="352"/>
-      <c r="O18" s="352"/>
-      <c r="P18" s="352"/>
-      <c r="Q18" s="352"/>
-      <c r="R18" s="353"/>
+      <c r="N18" s="351"/>
+      <c r="O18" s="351"/>
+      <c r="P18" s="351"/>
+      <c r="Q18" s="351"/>
+      <c r="R18" s="352"/>
       <c r="S18" s="188"/>
     </row>
     <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12935,17 +13069,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -12953,6 +13076,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
